--- a/Dataset/dataset_labeled.xlsx
+++ b/Dataset/dataset_labeled.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D299"/>
+  <dimension ref="A1:D429"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6701,12 +6701,2666 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
+        <v>0.09245461275993039</v>
+      </c>
+      <c r="B225" t="n">
+        <v>1398</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>[[0. 0. 0. ... 0. 0. 0.]
+ [0. 0. 0. ... 0. 0. 0.]
+ [0. 0. 0. ... 0. 0. 0.]
+ ...
+ [0. 0. 0. ... 0. 0. 0.]
+ [0. 0. 0. ... 0. 0. 0.]
+ [0. 0. 0. ... 0. 0. 0.]]</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>0.1157750081171295</v>
+      </c>
+      <c r="B226" t="n">
+        <v>7218</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>[[6.55650766e-06 4.95774824e-06 1.13287301e-05 ... 3.52072694e-05
+  4.94681311e-05 1.59969012e-03]
+ [2.05928572e-05 3.84569998e-05 2.41350536e-05 ... 1.00250184e-05
+  2.93246981e-05 2.35459991e-03]
+ [8.25540971e-05 5.28683764e-05 2.67923771e-05 ... 1.31221756e-05
+  1.08997699e-05 3.02214811e-03]
+ ...
+ [1.54582521e-05 5.57547940e-06 7.37576459e-06 ... 1.13493268e-05
+  7.62359872e-06 6.23757185e-05]
+ [1.55396636e-05 5.20866458e-06 4.99559866e-06 ... 7.96573230e-06
+  4.12968368e-06 6.01766079e-05]
+ [1.58032302e-05 4.49695437e-06 1.40014943e-06 ... 5.59467716e-06
+  2.88029268e-06 5.82274623e-05]]</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>0.2347832646883003</v>
+      </c>
+      <c r="B227" t="n">
+        <v>8713</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>[[1.62062136e+00 2.44841579e+00 1.23971925e+00 ... 2.44790306e+02
+  2.64958344e+01 8.00950522e+01]
+ [5.65290035e+00 4.82485521e+00 3.76339684e+00 ... 3.55761515e+01
+  2.39065133e+01 2.96090404e+01]
+ [1.37982620e+01 3.57548475e+01 3.55390425e+01 ... 2.43772891e+01
+  6.16849867e+01 4.36565645e+01]
+ ...
+ [1.90103040e-03 1.19173000e-03 4.86928209e-04 ... 4.23234023e-04
+  5.79335775e-04 4.93048468e-04]
+ [1.40015667e-03 5.92850834e-04 3.95448719e-04 ... 3.71303551e-04
+  5.50365625e-04 7.57896027e-04]
+ [1.28697345e-03 4.30507669e-04 1.22835492e-04 ... 1.82076719e-04
+  1.98109918e-04 2.48203724e-04]]</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>0.2683732339968803</v>
+      </c>
+      <c r="B228" t="n">
+        <v>8752</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>[[1.10212934e+00 1.40725248e+01 4.97316359e+01 ... 9.08216632e+01
+  1.65025646e+02 1.69861544e+02]
+ [2.52751897e+00 1.97259651e+01 2.53695368e+01 ... 9.82045245e+01
+  1.45834754e+02 8.02971763e+01]
+ [2.20983816e+00 1.44988423e+01 1.31878288e+01 ... 2.78868473e+01
+  3.65440035e+01 1.14985706e+01]
+ ...
+ [4.68029072e-04 9.50314520e-04 6.41189973e-04 ... 1.14764482e-04
+  4.53771778e-04 2.04385420e-03]
+ [2.23556109e-04 3.10228630e-04 4.57641930e-04 ... 3.85291362e-04
+  6.11148415e-04 1.88354470e-03]
+ [1.48779524e-04 1.55223855e-04 1.41122214e-04 ... 2.24245956e-04
+  2.12839455e-04 1.29365296e-03]]</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>0.3031052305450755</v>
+      </c>
+      <c r="B229" t="n">
+        <v>9172</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>[[7.84631038e+02 7.14041749e+02 1.29993607e+02 ... 2.71558438e+02
+  3.06508864e+02 2.16812264e+02]
+ [4.12766534e+02 2.85695898e+02 1.04892110e+01 ... 4.91644694e+01
+  1.07148334e+02 1.33271807e+02]
+ [1.71305242e+02 5.66045086e+01 4.65367277e+01 ... 5.23411356e+01
+  4.28477193e+01 1.58195138e+01]
+ ...
+ [2.10577317e-04 3.62413278e-04 3.75075625e-04 ... 3.98952917e-04
+  6.96596178e-04 9.55393792e-04]
+ [2.50385099e-04 4.33318927e-04 4.49712582e-04 ... 5.47793230e-04
+  7.50609275e-04 1.46425410e-03]
+ [2.46391730e-04 2.54812727e-04 1.71801162e-04 ... 1.80318906e-04
+  1.91983968e-04 5.11586829e-04]]</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>0.3035772117828244</v>
+      </c>
+      <c r="B230" t="n">
+        <v>9325</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>[[6.26176070e+01 2.42160739e+02 1.69665860e+02 ... 1.05786692e+02
+  1.87056097e+02 2.71150967e+02]
+ [1.62573341e+01 1.23495080e+02 5.50340180e+01 ... 1.47576951e+02
+  2.76016574e+01 2.87694357e+01]
+ [1.20343629e+01 6.90021740e+01 3.71747753e+01 ... 8.60453410e+01
+  9.45372159e+01 5.90535617e+01]
+ ...
+ [2.61487363e-03 1.17854852e-03 5.14951648e-04 ... 2.16815360e-04
+  3.16457402e-04 2.13567599e-03]
+ [2.88846787e-03 1.44851202e-03 8.85154215e-04 ... 7.74578091e-04
+  7.41996152e-04 2.30217586e-03]
+ [2.79495945e-03 8.55105040e-04 1.58536634e-04 ... 2.17883307e-04
+  2.12549185e-04 1.94137466e-03]]</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>0.288894054876713</v>
+      </c>
+      <c r="B231" t="n">
+        <v>9245</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>[[3.78608976e+01 6.71775703e+01 7.10810922e+01 ... 7.04354541e+01
+  2.44326728e+02 5.16984212e+02]
+ [3.27500759e+01 4.58231767e+01 3.70946216e+01 ... 2.73311041e+01
+  1.41963170e+02 3.74253824e+02]
+ [1.83702206e+01 1.31415812e+01 2.52760227e+01 ... 7.49905141e+01
+  4.46032365e+01 1.31426113e+02]
+ ...
+ [1.21847651e-03 5.21487448e-04 1.52088967e-04 ... 6.28639632e-04
+  6.53658363e-04 2.20595962e-03]
+ [1.06633904e-03 5.82338126e-04 2.61700930e-04 ... 7.89171871e-04
+  6.44702362e-04 2.17261744e-03]
+ [7.69976945e-04 3.64528181e-04 2.17590440e-04 ... 1.58320838e-04
+  1.04186758e-04 2.02462554e-03]]</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>0.2765130293652145</v>
+      </c>
+      <c r="B232" t="n">
+        <v>8894</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>[[3.73260789e+01 1.05078951e+02 4.76243409e+01 ... 1.36286293e+02
+  1.53445584e+02 9.20991990e+01]
+ [4.15553714e+01 5.94831244e+01 1.62291725e+01 ... 1.85386864e+01
+  1.42618430e+01 3.23686813e+01]
+ [1.73861134e+01 2.61594806e+01 1.29571382e+01 ... 1.05357065e+01
+  1.03952229e+01 3.96376528e+01]
+ ...
+ [3.98219331e-03 1.61053061e-03 7.34080228e-04 ... 1.30905971e-04
+  2.94332378e-04 1.17973602e-03]
+ [4.78396073e-03 1.99910271e-03 6.83506459e-04 ... 3.73540765e-04
+  3.53123651e-04 1.19496662e-03]
+ [4.02587216e-03 1.11134722e-03 1.20468961e-04 ... 1.22454726e-04
+  1.17399858e-04 7.41247268e-04]]</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>0.2709992909666589</v>
+      </c>
+      <c r="B233" t="n">
+        <v>8538</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>[[9.34853085e+01 1.27518100e+02 1.81185902e+02 ... 6.49333450e+01
+  8.77174313e+00 8.69006834e+00]
+ [3.70434210e+01 3.47940294e+01 5.14070871e+01 ... 1.84678889e+02
+  5.31050313e+01 3.04941022e+01]
+ [3.23614275e+01 1.46438824e+01 3.67943807e+01 ... 1.42747407e+02
+  4.26517386e+01 1.76778787e+01]
+ ...
+ [4.06581567e-03 1.28021510e-03 2.52846492e-04 ... 2.73971167e-04
+  4.51672206e-04 1.55120460e-03]
+ [4.30887672e-03 1.61742551e-03 3.97714390e-04 ... 2.37671310e-04
+  3.75597143e-04 1.43272560e-03]
+ [4.11626191e-03 1.24282391e-03 1.63965088e-04 ... 1.40695127e-04
+  1.60502448e-04 1.36320960e-03]]</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>0.2664616896173131</v>
+      </c>
+      <c r="B234" t="n">
+        <v>8657</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>[[7.50746000e+01 2.00038721e+02 8.67275106e+01 ... 3.91315226e+01
+  4.30856243e+01 5.63916525e+01]
+ [3.10915232e+01 1.15678509e+02 1.07766706e+02 ... 1.15443551e+02
+  5.23245674e+01 2.39534103e+01]
+ [6.41948339e+00 1.39399414e+01 1.91655249e+01 ... 1.26201216e+02
+  2.62238051e+01 1.46239149e+01]
+ ...
+ [1.58339296e-03 6.74591605e-04 3.48442413e-04 ... 2.16208876e-04
+  2.91506438e-04 1.91957500e-03]
+ [1.54554918e-03 6.03103712e-04 1.01569179e-04 ... 2.37923075e-04
+  2.03915099e-04 1.12681164e-03]
+ [1.56749649e-03 4.83387897e-04 7.42532413e-05 ... 1.95788782e-04
+  1.97360295e-04 1.08678238e-03]]</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>0.2958725210211242</v>
+      </c>
+      <c r="B235" t="n">
+        <v>9164</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>[[3.58110674e+02 4.09600764e+02 2.09187242e+02 ... 1.37583139e+02
+  8.47122893e+01 1.11449227e+02]
+ [1.51769789e+02 1.07304883e+02 3.82333262e+01 ... 2.24337097e+01
+  2.94283447e+01 8.27041013e+01]
+ [6.54297029e+01 2.74202376e+01 2.14261153e+01 ... 1.42767836e+01
+  3.33238021e+01 1.91646126e+01]
+ ...
+ [4.23228036e-03 1.23476660e-03 3.05501276e-04 ... 1.86528361e-04
+  3.60791908e-04 3.53479620e-03]
+ [4.11911035e-03 1.20513548e-03 2.79396828e-04 ... 1.18322955e-04
+  1.38010963e-04 3.13472357e-03]
+ [4.39255792e-03 1.34099671e-03 3.08965711e-04 ... 1.49157709e-04
+  1.45552555e-04 2.96698676e-03]]</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>0.2760826647483208</v>
+      </c>
+      <c r="B236" t="n">
+        <v>8487</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>[[7.63330962e+01 2.59685505e+02 1.53395263e+02 ... 1.05020208e+02
+  8.07724224e+02 8.50092176e+02]
+ [4.09901897e+01 1.07179711e+02 3.55163661e+01 ... 8.74943525e+01
+  3.51126666e+02 6.45415126e+02]
+ [1.14338631e+01 1.19152103e+01 6.26800395e+00 ... 1.27584382e+01
+  7.20090112e+01 1.34637831e+02]
+ ...
+ [3.26541771e-03 1.26380320e-03 2.56701722e-04 ... 3.56876857e-04
+  2.59018738e-04 6.42187044e-04]
+ [3.43355437e-03 1.08695457e-03 1.88444620e-04 ... 2.77388317e-04
+  2.13137634e-04 6.05814440e-04]
+ [3.32244834e-03 9.31866866e-04 1.58334643e-04 ... 2.21429336e-04
+  1.81432954e-04 5.07396236e-04]]</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>0.2685830896733131</v>
+      </c>
+      <c r="B237" t="n">
+        <v>8427</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>[[1.90596644e+01 2.12129388e+01 5.67224669e+00 ... 1.97116904e+01
+  1.37332607e+01 1.46194763e+01]
+ [9.92746352e+00 1.08191616e+01 5.44787398e+00 ... 2.08125314e+01
+  1.72679724e+01 8.40894685e+00]
+ [2.45999648e+01 4.94401569e+01 3.06244674e+01 ... 1.01225522e+01
+  2.76579389e+01 1.36562152e+01]
+ ...
+ [6.80786072e-03 1.84631457e-03 1.66294647e-04 ... 3.76863301e-04
+  2.87674651e-04 2.09350561e-04]
+ [6.43318136e-03 1.72375298e-03 1.20150321e-04 ... 3.27163206e-04
+  3.16213389e-04 2.51296190e-04]
+ [6.45406962e-03 1.71755368e-03 9.60432406e-05 ... 1.72835719e-04
+  2.67328460e-04 2.09061517e-04]]</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>0.2912057698850902</v>
+      </c>
+      <c r="B238" t="n">
+        <v>8849</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>[[4.83540234e+01 1.69373528e+02 6.15242164e+01 ... 2.64179021e+02
+  6.79593067e+01 9.86162778e+01]
+ [1.20364284e+01 1.14005086e+02 9.16092654e+01 ... 1.07106841e+02
+  1.68488756e+01 3.03886614e+01]
+ [2.78322069e+01 7.31894433e+01 7.43340140e+01 ... 3.14114021e+01
+  1.17064229e+01 7.68979033e+00]
+ ...
+ [1.02548859e-03 3.64321217e-04 1.39412962e-04 ... 4.96202320e-04
+  2.82890192e-04 2.51270209e-04]
+ [9.65338924e-04 3.90216472e-04 2.04522301e-04 ... 4.07997047e-04
+  2.60442691e-04 2.79502129e-04]
+ [9.22457493e-04 3.36031135e-04 1.37438524e-04 ... 2.36512341e-04
+  2.36324135e-04 2.67186505e-04]]</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>0.3079178453252128</v>
+      </c>
+      <c r="B239" t="n">
+        <v>9057</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>[[2.63577061e+01 8.64285719e+01 2.57556632e+02 ... 1.31569135e+01
+  6.34921580e+00 9.27221679e+00]
+ [2.01816148e+01 3.28617152e+01 5.02474744e+01 ... 1.33627674e+01
+  9.99998704e+00 1.27601559e+01]
+ [2.17063546e+01 1.68531564e+01 7.10475033e+00 ... 4.36589405e+00
+  8.81119165e+00 2.22164075e+01]
+ ...
+ [2.16517091e-04 5.03424138e-04 4.60775509e-04 ... 1.95596981e-04
+  2.25223642e-04 1.91464279e-04]
+ [2.10556762e-04 3.11443229e-04 2.12080453e-04 ... 1.18764289e-04
+  1.37530111e-04 1.28270968e-04]
+ [1.55242607e-04 2.28362211e-04 1.94531339e-04 ... 1.52104755e-04
+  1.46883049e-04 1.55563075e-04]]</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>0.3097955330280061</v>
+      </c>
+      <c r="B240" t="n">
+        <v>9214</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>[[1.68902366e+02 2.84192061e+02 2.53203480e+02 ... 6.68259598e+02
+  1.99621032e+02 2.67125811e+02]
+ [5.53887719e+01 6.80123542e+01 1.00565322e+02 ... 2.79683106e+02
+  1.60890888e+02 8.14222272e+01]
+ [1.35206549e+01 8.32930654e+00 3.31043235e+01 ... 8.93859524e+01
+  2.67356020e+01 2.00934074e+01]
+ ...
+ [2.60541755e-04 3.84872823e-04 2.63778189e-04 ... 2.88258262e-04
+  2.19348353e-04 4.23965641e-04]
+ [2.44343642e-04 3.61776590e-04 2.94544558e-04 ... 2.34243593e-04
+  1.79193582e-04 3.40735426e-04]
+ [1.45448609e-04 1.88944595e-04 1.79513313e-04 ... 1.60407151e-04
+  1.62562231e-04 3.51040331e-04]]</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>0.3051383633668122</v>
+      </c>
+      <c r="B241" t="n">
+        <v>9244</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>[[7.91044293e+01 1.73269327e+02 6.03067198e+01 ... 6.45906709e+01
+  5.58500341e+01 5.39112615e+01]
+ [4.32332521e+01 3.06032369e+01 1.87257469e+01 ... 1.86737182e+01
+  5.06828673e+01 3.62970323e+01]
+ [2.95170973e+01 6.10272881e+01 3.63824914e+01 ... 2.53439268e+00
+  1.17164061e+01 9.69559414e+00]
+ ...
+ [1.92377434e-04 3.76531474e-04 5.02769796e-04 ... 5.62691289e-04
+  4.92046620e-04 1.10095124e-03]
+ [1.57401490e-04 1.63334449e-04 2.19017535e-04 ... 9.57956428e-04
+  8.08714719e-04 1.51926067e-03]
+ [1.41780605e-04 1.13112973e-04 1.23282582e-04 ... 3.18786102e-04
+  3.51536161e-04 9.12980695e-04]]</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>0.259447469754634</v>
+      </c>
+      <c r="B242" t="n">
+        <v>8438</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>[[7.39772937e+00 1.91609800e+01 3.46923794e+01 ... 5.06382129e+01
+  4.25656115e+01 5.92861628e+01]
+ [9.35294196e+00 8.17273633e+00 1.14770857e+01 ... 7.27677562e+00
+  4.28387032e+00 1.47638132e+01]
+ [1.27264658e+01 8.37984197e+00 3.79888758e+01 ... 1.48552855e+00
+  2.82105712e+00 1.06797175e+01]
+ ...
+ [5.87896443e-04 4.64693731e-04 6.66642452e-04 ... 2.18354476e-04
+  1.90622806e-04 2.04120800e-04]
+ [4.59731000e-04 2.29487663e-04 1.46761284e-04 ... 1.97588261e-04
+  1.72544611e-04 2.19558159e-04]
+ [4.83560875e-04 3.06020466e-04 1.72808230e-04 ... 2.57979894e-05
+  2.57297808e-05 7.79456205e-05]]</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>0.1661650711589954</v>
+      </c>
+      <c r="B243" t="n">
+        <v>592</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>[[1.51800534e-02 2.31502142e-02 1.69671665e-02 ... 1.88913971e+00
+  5.86731295e-01 3.89122784e-01]
+ [3.52755227e-03 4.69587001e-03 5.35603832e-03 ... 6.64392284e+00
+  2.34332216e+00 7.90504842e-01]
+ [5.43768174e-04 3.05990177e-03 1.16200125e-02 ... 3.34758044e+00
+  1.88024562e+00 1.11358267e+00]
+ ...
+ [1.05521933e-07 1.50416674e-07 1.49971502e-07 ... 2.13414994e-07
+  2.75388438e-08 1.98292356e-06]
+ [8.09059089e-08 1.48724004e-07 1.35118577e-07 ... 3.45359417e-08
+  1.27203735e-08 1.96110801e-06]
+ [5.98669211e-09 9.78407849e-09 9.77931715e-09 ... 8.95432917e-09
+  1.30486507e-08 1.95889431e-06]]</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>0.1327689499595459</v>
+      </c>
+      <c r="B244" t="n">
+        <v>503</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>[[1.11915760e+00 3.88197402e+00 5.72960128e+00 ... 1.33833861e-01
+  1.38596781e-01 1.51101570e-01]
+ [1.27208372e+00 1.28756164e+01 2.58247537e+01 ... 3.90994497e-03
+  2.22874555e-03 9.68286236e-03]
+ [2.24927939e+00 2.37900323e+01 2.21512001e+01 ... 4.61803934e-03
+  1.74403943e-03 8.07950294e-03]
+ ...
+ [3.25463610e-05 8.19103951e-06 3.80631285e-08 ... 4.21774929e-07
+  5.19315423e-07 8.34811162e-07]
+ [3.10301789e-05 7.73426346e-06 7.76793778e-09 ... 1.62530149e-07
+  1.65830049e-07 5.03154525e-07]
+ [3.08068351e-05 7.68286726e-06 6.02902215e-09 ... 1.14817821e-08
+  1.19388230e-08 3.04941447e-07]]</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>0.111248642359614</v>
+      </c>
+      <c r="B245" t="n">
+        <v>416</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>[[5.64635872e-01 1.96131488e+00 2.23713414e+01 ... 1.07122160e-01
+  1.74865312e-01 2.85999226e-01]
+ [4.22424526e-01 8.02296297e+00 1.01100222e+02 ... 2.73788866e-01
+  1.35384452e-01 3.16274422e-01]
+ [2.98851207e-01 4.83464830e+01 1.54590800e+02 ... 9.10665636e-01
+  5.65832470e-01 1.87865073e-01]
+ ...
+ [4.11362246e-06 2.25713057e-06 2.09326435e-06 ... 1.20115941e-08
+  1.48313099e-08 7.92425675e-07]
+ [4.07995388e-06 2.21476229e-06 2.03004150e-06 ... 4.58775911e-09
+  7.54908946e-09 7.56627890e-07]
+ [4.05788687e-06 1.71226706e-06 1.19172570e-06 ... 6.42194521e-09
+  8.99992189e-09 7.54202580e-07]]</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>0.1216846701152142</v>
+      </c>
+      <c r="B246" t="n">
+        <v>387</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>[[9.87884338e-02 1.37236437e-01 1.36101030e-01 ... 3.91593175e-01
+  7.73486665e-01 1.04865319e+00]
+ [3.00447195e-02 1.17502417e-02 3.68843533e-03 ... 5.93723093e-01
+  1.40102687e+00 1.58077809e+00]
+ [1.74724763e-02 1.29733768e-02 2.66291162e-03 ... 1.83674885e+00
+  2.34274609e+00 1.85643082e+00]
+ ...
+ [8.57383462e-07 5.68884280e-07 6.31758803e-07 ... 9.05375574e-09
+  3.09163245e-08 1.22835460e-06]
+ [8.56999381e-07 3.65579237e-07 1.40068846e-07 ... 7.20070193e-09
+  2.54334620e-08 1.00945451e-06]
+ [6.15009416e-07 1.66316762e-07 1.74937072e-08 ... 7.52515877e-09
+  9.66422647e-09 1.08383904e-06]]</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>0.1148828804395829</v>
+      </c>
+      <c r="B247" t="n">
+        <v>570</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>[[1.95939556e+00 1.19860554e+01 1.17172885e+01 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]
+ [9.06346514e+00 6.41960067e+01 6.30937091e+01 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]
+ [4.71420467e+01 7.75298865e+01 1.28953049e+02 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]
+ ...
+ [1.18058406e-05 6.84028399e-06 5.35662345e-08 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]
+ [9.56214540e-06 5.36465940e-06 4.06435894e-08 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]
+ [9.34061049e-06 5.24463667e-06 3.86158232e-08 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]]</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>0.101447433272852</v>
+      </c>
+      <c r="B248" t="n">
+        <v>8893</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>[[2.07456532e-03 1.98951438e-02 5.61077888e-02 ... 1.45233686e-02
+  1.48534465e-02 2.83075738e-02]
+ [1.47182888e-03 1.82175251e-03 2.23179263e-03 ... 4.71945956e-04
+  3.86571531e-04 2.12478619e-03]
+ [2.16470720e-03 2.13785885e-03 3.29832163e-04 ... 2.12117057e-04
+  5.80698068e-05 4.77467534e-04]
+ ...
+ [3.07096515e-08 9.39144782e-09 1.32562266e-09 ... 1.10570033e-08
+  1.91224415e-08 4.19594696e-08]
+ [3.20536164e-08 8.98096229e-09 8.53503921e-10 ... 3.04917949e-09
+  4.21100517e-09 2.36560012e-08]
+ [3.12698707e-08 8.54644180e-09 7.29483104e-10 ... 2.29779242e-09
+  2.56899860e-09 2.11991523e-08]]</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>0.1900456935370635</v>
+      </c>
+      <c r="B249" t="n">
+        <v>1714</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>[[3.51727527e+01 2.57078294e+02 5.22202476e+02 ... 1.21343799e+01
+  5.39219345e+01 4.41807751e+01]
+ [1.09901886e+02 3.79767151e+02 9.73292055e+02 ... 3.19028288e+01
+  5.23089382e+01 2.54053378e+01]
+ [7.56892801e+01 9.49651552e+01 6.41067791e+02 ... 2.69650580e+01
+  2.21902978e+01 8.20065460e+00]
+ ...
+ [2.06416430e-03 5.15077151e-04 9.45229070e-07 ... 2.06027701e-06
+  3.77569583e-06 5.87921814e-04]
+ [2.04304196e-03 5.09813442e-04 8.43397047e-07 ... 2.19211582e-06
+  3.62433342e-06 5.80959177e-04]
+ [2.04397676e-03 5.10213904e-04 6.53185525e-07 ... 1.35735811e-06
+  3.24523038e-06 5.72829423e-04]]</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>0.1158747826699706</v>
+      </c>
+      <c r="B250" t="n">
+        <v>1846</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>[[2.12505861e+01 3.77258674e+01 2.75917408e+01 ... 3.07733559e+01
+  1.81707986e+01 1.71866111e+01]
+ [1.70592730e+01 1.37861459e+01 1.01256322e+01 ... 9.89896146e+00
+  1.57768651e+00 5.88285259e+00]
+ [1.67326917e+01 2.20496102e+01 4.92260486e+00 ... 3.60424489e+00
+  8.53144485e-01 8.57300674e-01]
+ ...
+ [2.02726522e-05 5.80325374e-06 8.72068087e-07 ... 7.43424677e-06
+  1.29114662e-05 5.27278238e-05]
+ [1.90646075e-05 5.59907564e-06 7.30178065e-07 ... 3.63895718e-06
+  5.65689323e-06 4.17382482e-05]
+ [1.85223515e-05 5.23845566e-06 6.27370917e-07 ... 9.94754743e-07
+  1.34596498e-06 3.54658718e-05]]</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>0.1416627210618982</v>
+      </c>
+      <c r="B251" t="n">
+        <v>2222</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>[[4.77749415e+00 8.38420341e+00 1.34496183e+01 ... 2.54956507e+02
+  3.87496759e+01 6.12991922e+00]
+ [2.18088304e+01 5.35394464e+01 3.05016437e+01 ... 1.64897109e+02
+  2.96894425e+01 3.29592019e+00]
+ [4.65937834e+01 9.79643602e+01 1.99985780e+01 ... 3.18600519e+01
+  5.85699340e+00 1.27879178e+01]
+ ...
+ [9.58788701e-05 2.45767413e-05 5.31630907e-07 ... 1.27770291e-06
+  8.54460422e-07 1.05002218e-05]
+ [9.62601889e-05 2.46006223e-05 6.28153157e-07 ... 1.59092088e-06
+  1.05757741e-06 1.06645873e-05]
+ [9.79461874e-05 2.48466228e-05 5.93343505e-07 ... 2.35287944e-06
+  1.78672507e-06 1.06760508e-05]]</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>0.1015049913363723</v>
+      </c>
+      <c r="B252" t="n">
+        <v>451</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>[[3.08041704e-03 3.87420805e-01 7.38634528e+00 ... 4.44803306e+01
+  3.46657299e+01 1.67802964e+01]
+ [1.21984269e-03 2.72016214e-01 1.07666101e+01 ... 1.44655845e+01
+  1.16069320e+01 6.23785571e+00]
+ [2.66093213e-04 2.44087916e-01 9.91458846e+00 ... 1.17331868e+01
+  3.08237677e+00 2.71348040e-01]
+ ...
+ [8.67331336e-10 5.75170043e-07 1.13872420e-05 ... 7.71842283e-09
+  2.77283682e-08 5.81555737e-06]
+ [6.09890936e-10 3.37409668e-07 8.63217324e-06 ... 2.97995016e-09
+  2.20674642e-08 5.78048744e-06]
+ [5.88399911e-10 7.83728466e-08 2.29650974e-06 ... 2.87172171e-09
+  1.99824150e-08 5.75012943e-06]]</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>0.06189063029729421</v>
+      </c>
+      <c r="B253" t="n">
+        <v>435</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>[[5.65152290e-04 5.17785415e-02 3.19308251e+00 ... 4.17297480e-01
+  4.27962114e-01 4.30859429e-01]
+ [3.60973097e-04 5.13841052e-02 4.19500249e+00 ... 1.80202546e-01
+  1.50295491e-01 3.64609320e-01]
+ [1.24936683e-04 2.46257508e-02 2.56780866e+00 ... 9.71320132e-02
+  1.27514882e-01 1.67153589e-01]
+ ...
+ [6.89632942e-10 4.92529475e-08 5.89101119e-07 ... 1.80625313e-09
+  2.20045374e-09 3.02607325e-08]
+ [5.15864639e-10 2.96211311e-08 3.64135655e-07 ... 1.59798660e-09
+  1.81448551e-09 3.06120369e-08]
+ [4.80322654e-10 1.78477617e-08 3.10521129e-07 ... 1.52742930e-09
+  1.59309234e-09 2.94364484e-08]]</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>0.08649338797187606</v>
+      </c>
+      <c r="B254" t="n">
+        <v>5247</v>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>[[1.23401594e-03 2.67377649e-04 5.69042396e-05 ... 1.83125489e-04
+  2.49053281e-04 8.84967835e-02]
+ [1.11019841e-03 4.63694099e-04 1.74903414e-04 ... 1.51393987e-04
+  2.33001975e-04 9.20251516e-02]
+ [2.18305604e-03 2.16559022e-03 7.12404343e-03 ... 2.84132003e-03
+  3.97664130e-03 1.28380588e-01]
+ ...
+ [1.72710778e-06 1.76463983e-04 3.60140283e-04 ... 2.40007689e-06
+  4.72512625e-06 7.29538493e-04]
+ [1.36005529e-06 1.46412607e-04 2.83957687e-04 ... 1.85143185e-06
+  3.85566678e-06 6.68962054e-04]
+ [3.96979950e-07 2.46619765e-06 6.59214223e-06 ... 2.21673351e-06
+  3.28077586e-06 6.52837488e-04]]</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>0.08837404453891561</v>
+      </c>
+      <c r="B255" t="n">
+        <v>5488</v>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>[[1.89985000e-03 1.53440867e-03 4.26544322e-04 ... 2.23195486e-04
+  8.00643229e-04 1.19748793e-03]
+ [1.16029392e-03 9.26771346e-04 6.96556242e-04 ... 4.73517484e-04
+  1.18682391e-03 4.87537813e-04]
+ [8.23906926e-03 3.49212691e-02 6.10507808e-02 ... 1.53057078e-03
+  7.04603925e-04 6.40538851e-04]
+ ...
+ [1.18588139e-05 2.48488087e-05 1.10698710e-05 ... 4.66158867e-06
+  8.76790834e-06 2.66273564e-06]
+ [1.25096219e-05 2.89800909e-05 1.19075813e-05 ... 1.69082805e-06
+  4.05477317e-06 2.08308632e-06]
+ [1.29545198e-05 3.26191124e-05 1.29489264e-05 ... 1.97891413e-06
+  3.48111860e-06 1.80042371e-06]]</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>0.08629528676230892</v>
+      </c>
+      <c r="B256" t="n">
+        <v>5817</v>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>[[1.75941661e-01 3.91506630e-02 1.91952297e-04 ... 9.01157160e-06
+  4.61218541e-06 1.10442486e-05]
+ [2.06441426e-01 5.50084250e-02 6.72010150e-04 ... 8.15667728e-06
+  1.62578694e-05 9.69966646e-05]
+ [2.82394927e-01 7.44685002e-02 2.41710825e-03 ... 2.18797095e-04
+  2.14607043e-04 2.72106179e-04]
+ ...
+ [1.54195015e-03 3.90245605e-04 2.16453695e-06 ... 1.03808512e-06
+  4.27460199e-07 2.18189581e-06]
+ [1.47452804e-03 3.71589949e-04 1.92756238e-06 ... 6.90381311e-07
+  3.31936643e-07 2.22060335e-06]
+ [1.35175728e-03 3.41756769e-04 3.29565301e-06 ... 6.86650304e-07
+  4.31500467e-07 2.31625816e-06]]</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>0.07694069348853146</v>
+      </c>
+      <c r="B257" t="n">
+        <v>6517</v>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>[[8.69625282e-04 2.27204660e-04 1.17324932e-05 ... 4.63382857e-05
+  1.31932161e-05 2.10867339e-04]
+ [8.22957338e-04 3.13859845e-04 1.30521854e-05 ... 7.26960282e-05
+  6.35855275e-05 4.57387362e-04]
+ [3.72870315e-04 2.31717605e-04 1.86871008e-04 ... 1.11365994e-03
+  3.32370490e-04 8.68827029e-04]
+ ...
+ [4.03236343e-07 5.27921997e-07 4.56678689e-06 ... 3.90028478e-06
+  9.72383268e-06 1.28168547e-05]
+ [3.15285172e-07 4.05517485e-07 1.50528602e-06 ... 4.22275630e-06
+  9.63340591e-06 1.30035050e-05]
+ [4.55511705e-07 4.73239474e-07 1.19573043e-06 ... 3.88962936e-06
+  6.51625268e-06 1.03544478e-05]]</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>0.08124704967266454</v>
+      </c>
+      <c r="B258" t="n">
+        <v>6719</v>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>[[1.24666050e-04 3.36284208e-05 1.14605936e-05 ... 1.93691217e-03
+  1.62400439e-03 4.31397345e-03]
+ [1.70183631e-04 5.56116992e-05 3.52316210e-05 ... 1.50249749e-03
+  1.83311857e-03 3.21413143e-03]
+ [5.48106584e-04 4.83173198e-04 5.94498370e-04 ... 9.34811362e-03
+  1.10280796e-02 1.01185034e-02]
+ ...
+ [4.74361827e-06 1.32024126e-06 3.01578368e-07 ... 2.94262078e-05
+  9.12421732e-06 6.50114554e-05]
+ [4.57281629e-06 1.25817418e-06 1.36908311e-07 ... 1.15339442e-05
+  6.15793862e-06 1.12456505e-05]
+ [4.61300309e-06 1.24276908e-06 8.39381946e-08 ... 8.76510517e-06
+  5.13414590e-06 8.68129619e-06]]</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>0.08679141950638521</v>
+      </c>
+      <c r="B259" t="n">
+        <v>6279</v>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>[[1.39041312e-04 3.79739515e-05 2.08896512e-05 ... 5.70042218e-05
+  9.13411684e-04 2.32820254e-02]
+ [8.39448901e-05 1.57851834e-05 1.49932709e-05 ... 2.13534351e-04
+  1.84565906e-03 1.16166164e-02]
+ [1.18881170e-03 1.46546241e-03 9.30116913e-04 ... 1.23996175e-03
+  1.52683186e-03 3.25261609e-02]
+ ...
+ [3.65826931e-06 2.92023159e-06 6.55563738e-06 ... 3.76281543e-07
+  1.35594040e-05 2.92340253e-04]
+ [4.37320270e-06 2.69936939e-06 7.26038184e-06 ... 4.20747592e-07
+  6.18819941e-06 2.63476773e-04]
+ [4.20123387e-06 2.13771717e-06 5.65931495e-06 ... 3.70300911e-07
+  3.13728203e-06 6.43549459e-05]]</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>0.08228289655285202</v>
+      </c>
+      <c r="B260" t="n">
+        <v>6118</v>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>[[1.60884738e-03 1.28403466e-03 1.22303275e-03 ... 1.14083892e-04
+  2.84637168e-04 4.06112350e-03]
+ [2.92722458e-03 6.55763965e-04 2.63710217e-03 ... 2.22156439e-04
+  8.89817141e-04 4.45843402e-03]
+ [2.09097743e-02 1.63418641e-02 1.70612190e-02 ... 1.15253452e-03
+  4.36413893e-03 2.12109574e-02]
+ ...
+ [6.51512752e-05 9.88296892e-05 2.26832744e-04 ... 3.10554181e-05
+  4.68568831e-05 1.72162413e-04]
+ [1.84779838e-05 2.16394093e-05 4.91409334e-05 ... 4.66589592e-06
+  8.19680846e-06 3.86085024e-05]
+ [2.17234176e-05 2.63969728e-05 3.86861315e-05 ... 5.83955758e-06
+  9.45713538e-06 4.85480296e-05]]</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>0.1025422534997787</v>
+      </c>
+      <c r="B261" t="n">
+        <v>5790</v>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>[[4.40969496e-02 1.32975291e-02 3.99332221e-03 ... 1.58794037e-03
+  2.61108014e-04 1.17640622e-02]
+ [4.23402189e-02 9.65051863e-03 6.18044738e-04 ... 2.39412564e-03
+  5.59751669e-04 1.25708730e-02]
+ [5.32883830e-02 1.56580145e-02 5.02943522e-03 ... 1.18394382e-02
+  7.93556618e-03 4.33392883e-02]
+ ...
+ [1.74611026e-04 1.77126335e-04 1.97504248e-04 ... 1.24116362e-04
+  9.86330726e-05 5.22411498e-05]
+ [1.12676178e-04 6.04906682e-05 2.56706876e-05 ... 8.84196746e-05
+  7.57135509e-05 5.14374109e-05]
+ [6.67160253e-05 2.79177395e-05 2.35721725e-05 ... 5.20731249e-05
+  4.04389897e-05 4.65576305e-05]]</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>0.1025613751294067</v>
+      </c>
+      <c r="B262" t="n">
+        <v>6061</v>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>[[1.17103559e-03 3.46911730e-04 2.94556484e-05 ... 2.09009757e-04
+  4.96047685e-05 2.35022448e-04]
+ [1.35618843e-03 6.13357967e-04 3.95483531e-05 ... 9.00873830e-04
+  8.94039259e-04 1.43767491e-03]
+ [5.81702354e-03 1.05345129e-02 6.72255047e-03 ... 1.68430467e-03
+  4.33009270e-03 5.32317425e-03]
+ ...
+ [6.63934229e-05 2.05279538e-05 1.01037180e-05 ... 7.23832533e-05
+  5.43031091e-05 6.46064939e-05]
+ [6.81887164e-05 2.11750102e-05 3.03342894e-06 ... 9.54442854e-06
+  6.16395803e-06 1.97216303e-05]
+ [6.52904379e-05 1.91032680e-05 1.94475108e-06 ... 4.36187215e-06
+  3.58101081e-06 1.46337452e-05]]</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>0.09904107075811486</v>
+      </c>
+      <c r="B263" t="n">
+        <v>6264</v>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>[[2.48410537e-02 9.07961016e-03 3.16206081e-04 ... 4.12331881e-04
+  5.86722951e-04 1.05281186e-02]
+ [3.27892176e-02 1.11228749e-02 1.07928301e-03 ... 2.70866344e-03
+  1.03023689e-03 1.25315776e-02]
+ [7.28734169e-02 3.66019849e-02 1.27114792e-02 ... 1.57667579e-02
+  1.60281552e-02 2.10302170e-02]
+ ...
+ [1.69824438e-05 4.60665469e-05 6.81424412e-05 ... 8.03643191e-05
+  1.65705002e-05 1.25520484e-04]
+ [1.08682615e-05 1.40409924e-05 2.58092760e-05 ... 3.44098232e-05
+  1.54499762e-05 1.26241688e-04]
+ [8.03412276e-06 1.61968773e-05 2.87837621e-05 ... 2.97573085e-05
+  2.18002419e-05 1.21442118e-04]]</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>0.09102673631189873</v>
+      </c>
+      <c r="B264" t="n">
+        <v>6211</v>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>[[1.21594615e-03 7.35473918e-04 9.75830543e-05 ... 3.11964011e-05
+  3.24545296e-05 1.15308080e-04]
+ [2.98833968e-03 1.91693978e-03 1.20592781e-04 ... 1.77445503e-04
+  9.95335584e-05 7.27461407e-04]
+ [6.64217527e-03 3.92925220e-03 6.70819562e-04 ... 2.06899644e-03
+  2.93039874e-03 9.08141271e-03]
+ ...
+ [1.84325594e-05 9.97855478e-06 3.52704343e-06 ... 6.11849999e-06
+  4.03831674e-06 8.48528874e-06]
+ [2.05285207e-05 9.96071624e-06 2.43927722e-06 ... 4.45076753e-06
+  2.89888849e-06 2.30294812e-06]
+ [2.39498794e-05 8.76676097e-06 1.86641326e-06 ... 4.36417345e-06
+  2.17539050e-06 1.86543409e-06]]</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>0.08320716561963118</v>
+      </c>
+      <c r="B265" t="n">
+        <v>6115</v>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>[[2.28038264e-02 5.75110563e-03 3.55290946e-05 ... 5.00009987e-05
+  2.00020093e-02 5.12525268e-02]
+ [2.21003515e-02 5.31539322e-03 7.26862067e-05 ... 7.98497921e-05
+  2.19843891e-02 3.68026481e-02]
+ [3.13622927e-02 8.80918852e-03 6.04092251e-03 ... 1.95756405e-04
+  4.00521326e-02 1.06141486e-01]
+ ...
+ [2.38629625e-04 6.21010871e-05 2.90019607e-06 ... 9.81909727e-07
+  1.49474745e-04 4.06927089e-04]
+ [2.33933501e-04 6.13242098e-05 2.29012377e-06 ... 5.97120461e-07
+  1.68389972e-04 4.70430127e-04]
+ [2.49044823e-04 6.64020291e-05 3.65563070e-06 ... 5.30250490e-07
+  2.64856322e-04 6.77390070e-04]]</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>0.07844014728534143</v>
+      </c>
+      <c r="B266" t="n">
+        <v>5880</v>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>[[7.70802888e-04 1.70391266e-03 1.45409732e-03 ... 2.08521068e-05
+  9.01029970e-05 1.88219201e-03]
+ [1.52453595e-03 8.24404482e-04 1.79731412e-03 ... 9.87804007e-05
+  1.28016397e-04 3.00291916e-03]
+ [9.12736793e-03 1.44726236e-02 2.66949983e-02 ... 1.78913618e-03
+  3.42125851e-03 1.51839749e-02]
+ ...
+ [3.07830703e-05 4.38141629e-04 4.26035219e-04 ... 4.44221750e-07
+  6.43888626e-06 7.27733086e-05]
+ [1.03395089e-05 1.51437215e-04 1.98682551e-04 ... 2.86384143e-07
+  2.35945148e-06 3.36200420e-05]
+ [6.09594636e-06 2.95257049e-05 4.55484870e-05 ... 2.90010224e-07
+  2.95505467e-06 4.48218962e-05]]</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>0.08042867032719937</v>
+      </c>
+      <c r="B267" t="n">
+        <v>5814</v>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>[[2.15806231e-03 1.04469391e-03 2.00229395e-04 ... 6.75189656e-06
+  1.39090726e-04 3.37180399e-02]
+ [6.85723300e-03 2.27087424e-03 5.94180701e-04 ... 5.45084481e-05
+  1.80862235e-04 3.90257982e-02]
+ [1.88810795e-02 1.06953067e-02 9.48998974e-03 ... 1.94716194e-03
+  5.43750096e-03 9.71652994e-02]
+ ...
+ [6.68462405e-06 5.98856902e-06 5.21850607e-06 ... 1.71869306e-06
+  2.19594299e-06 3.97162141e-06]
+ [7.81919965e-06 6.96554042e-06 6.25589010e-06 ... 1.58824066e-06
+  2.10948081e-06 3.47311653e-06]
+ [7.21087097e-06 5.84915515e-06 6.06118939e-06 ... 1.63418571e-06
+  2.24147737e-06 4.53123961e-06]]</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>0.08433835452281967</v>
+      </c>
+      <c r="B268" t="n">
+        <v>6165</v>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>[[4.27895541e-03 1.18438941e-03 4.92198941e-05 ... 1.53246563e-04
+  1.55223413e-04 6.95591320e-03]
+ [6.79551669e-03 3.33003557e-03 1.95254657e-04 ... 7.87488628e-04
+  5.73154682e-04 6.81209554e-03]
+ [1.23682167e-02 9.34318182e-03 6.11870669e-04 ... 2.01099004e-02
+  1.57219433e-02 1.03988508e-02]
+ ...
+ [2.08484350e-05 1.09363787e-05 4.01269957e-06 ... 1.31736390e-05
+  9.12471645e-06 1.73106822e-05]
+ [2.52476430e-05 1.08552621e-05 3.26758393e-06 ... 1.13330293e-05
+  7.56284395e-06 1.69563691e-05]
+ [2.85890939e-05 1.10051276e-05 4.61992560e-06 ... 1.01112294e-05
+  7.95606357e-06 1.64886583e-05]]</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>0.07810455253525582</v>
+      </c>
+      <c r="B269" t="n">
+        <v>6120</v>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>[[7.77645074e-02 2.30541389e-02 4.63103815e-04 ... 1.54798208e-04
+  8.42587444e-04 1.79828790e-03]
+ [8.33640777e-02 2.30740330e-02 2.06632267e-03 ... 1.10972422e-04
+  2.56448866e-04 1.40407289e-03]
+ [1.04596435e-01 5.80604215e-02 7.93880400e-03 ... 6.25054820e-03
+  8.31604259e-03 1.08392654e-02]
+ ...
+ [3.11796423e-06 1.57717847e-06 8.53372732e-07 ... 1.95658662e-06
+  9.23618552e-06 4.95418202e-04]
+ [2.18159023e-06 1.29456457e-06 8.40243675e-07 ... 8.44593264e-07
+  2.98025344e-06 3.91678960e-04]
+ [1.45505646e-06 1.12831365e-06 8.56688833e-07 ... 8.45485588e-07
+  3.33617496e-06 4.25783415e-04]]</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>0.06391313813050076</v>
+      </c>
+      <c r="B270" t="n">
+        <v>5820</v>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>[[1.43285994e-02 3.34383819e-03 1.98395801e-05 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]
+ [1.55186181e-02 3.98792148e-03 2.62066315e-05 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]
+ [1.76302230e-02 4.29778987e-03 1.82109696e-04 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]
+ ...
+ [3.48883944e-05 9.12346852e-06 4.38817422e-07 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]
+ [3.32937828e-05 8.71196395e-06 4.52975411e-07 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]
+ [3.27675779e-05 8.63523928e-06 3.74749880e-07 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]]</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>0.2081337191698083</v>
+      </c>
+      <c r="B271" t="n">
+        <v>3347</v>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>[[1.76878327e-01 8.61011367e-02 1.80136738e-02 ... 3.69005124e-02
+  3.14447519e-02 2.64612644e-02]
+ [1.22194347e-01 2.96502910e-02 2.86353005e-03 ... 2.80193497e-02
+  2.71504469e-02 7.68519366e-02]
+ [9.39216796e-02 1.84715435e-02 6.51180896e-03 ... 1.57318683e-02
+  2.38883682e-02 1.22367032e-01]
+ ...
+ [1.38936703e-05 3.55823572e-06 1.11011348e-07 ... 1.20539976e-06
+  2.63263271e-06 2.48926069e-04]
+ [1.34302436e-05 3.40125970e-06 7.25329265e-08 ... 7.02227790e-07
+  1.90952387e-06 2.43624047e-04]
+ [1.30758010e-05 3.31538395e-06 7.36659310e-08 ... 6.95186386e-07
+  2.03391941e-06 2.41805768e-04]]</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>0.2361152327694567</v>
+      </c>
+      <c r="B272" t="n">
+        <v>3288</v>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>[[3.98003307e-02 2.42437677e-02 3.03380879e-02 ... 1.26371211e-02
+  3.10799300e-02 3.56290715e-02]
+ [4.27942035e-02 3.37414847e-02 2.59771220e-02 ... 1.42409369e-02
+  2.28449487e-02 7.52244821e-02]
+ [3.86780629e-02 2.40948093e-02 2.09849670e-02 ... 1.26133386e-02
+  3.94428020e-02 1.59316951e-01]
+ ...
+ [2.83308251e-06 9.86489757e-07 3.92265300e-07 ... 1.18335698e-06
+  4.68073075e-07 1.45652400e-05]
+ [2.92144475e-06 9.70234432e-07 3.29431387e-07 ... 7.89796695e-07
+  3.39856572e-07 1.40201253e-05]
+ [3.18914500e-06 1.00741643e-06 2.03958536e-07 ... 5.53262522e-07
+  3.45255530e-07 1.30247278e-05]]</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>0.238882751634217</v>
+      </c>
+      <c r="B273" t="n">
+        <v>3327</v>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>[[1.98422312e-01 1.79595266e-01 8.23532019e-02 ... 2.93480238e-01
+  1.53356659e-01 2.81125973e-02]
+ [2.45052185e-01 1.27995046e-01 1.32448288e-02 ... 7.52581611e-02
+  4.42549260e-02 3.41315718e-02]
+ [2.07739022e-01 6.38330139e-02 1.34185848e-02 ... 2.49507018e-02
+  5.70882228e-02 2.70368442e-01]
+ ...
+ [5.22245581e-04 1.30747679e-04 3.63813568e-07 ... 3.59497099e-06
+  1.39697986e-06 8.49826810e-07]
+ [5.14068326e-04 1.28567005e-04 3.11851836e-07 ... 5.21024415e-06
+  1.41551810e-06 5.36973359e-07]
+ [5.01195268e-04 1.25167672e-04 1.87407711e-07 ... 9.51524996e-06
+  2.05571170e-06 3.82010445e-07]]</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>0.2244535760279132</v>
+      </c>
+      <c r="B274" t="n">
+        <v>3336</v>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>[[2.58699675e-01 8.49397699e-01 2.88824661e-01 ... 1.00427835e-02
+  2.08811485e-02 5.12215428e-03]
+ [1.24494972e-01 5.43292506e-01 1.17313373e-01 ... 1.80779494e-02
+  1.71647163e-02 2.35146976e-03]
+ [1.40054387e-01 5.72480649e-01 3.60400658e-01 ... 3.58340759e-03
+  5.49144108e-03 4.38010375e-03]
+ ...
+ [3.03161652e-05 2.75562770e-05 6.99910514e-06 ... 2.68163461e-07
+  5.38189046e-07 1.12131650e-04]
+ [3.54172788e-05 4.73298893e-05 1.19160582e-05 ... 1.82119058e-07
+  4.91344381e-07 1.10944167e-04]
+ [3.34892637e-05 3.48581731e-05 8.04893460e-06 ... 1.05991663e-07
+  4.32463789e-07 1.10150881e-04]]</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>0.229399590001337</v>
+      </c>
+      <c r="B275" t="n">
+        <v>3147</v>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>[[2.48038957e-01 1.12063604e-01 2.22116653e-02 ... 4.82921992e-02
+  7.89920100e-02 3.45473499e-02]
+ [1.78618560e-01 6.73561578e-02 1.28423766e-02 ... 2.61907068e-03
+  2.03797963e-02 1.20805186e-02]
+ [2.65600537e-01 1.91888660e-01 1.72494269e-01 ... 5.28109506e-03
+  4.13079428e-03 2.04428603e-02]
+ ...
+ [9.45837592e-07 2.09328804e-06 2.23768318e-06 ... 1.00547076e-07
+  8.88390547e-07 2.59666993e-04]
+ [5.85821787e-07 1.20412630e-06 1.29073987e-06 ... 7.87308927e-08
+  8.49512644e-07 2.56534188e-04]
+ [2.09212917e-07 5.02614689e-07 7.84605691e-07 ... 7.07175924e-08
+  8.31864263e-07 2.54606974e-04]]</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>0.2135655287775166</v>
+      </c>
+      <c r="B276" t="n">
+        <v>3105</v>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>[[9.42798050e-03 1.06185150e-02 5.40461687e-03 ... 2.50048229e-02
+  2.55628483e-02 7.05915686e-02]
+ [1.28255066e-02 7.07671763e-03 1.27971444e-02 ... 1.07488239e-02
+  3.39315402e-02 7.32535078e-02]
+ [3.53877569e-02 2.04746729e-02 3.74283101e-02 ... 3.25640082e-02
+  1.30790886e-02 4.34343435e-02]
+ ...
+ [2.30957072e-04 5.77368868e-05 2.21749980e-07 ... 1.47535121e-07
+  1.00870364e-06 2.99411631e-04]
+ [2.30588247e-04 5.76459669e-05 1.41130988e-07 ... 1.02087848e-07
+  9.78271478e-07 2.98367071e-04]
+ [2.29809117e-04 5.74104858e-05 9.37887928e-08 ... 8.51919136e-08
+  9.94176014e-07 3.09699326e-04]]</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>0.1870129084958506</v>
+      </c>
+      <c r="B277" t="n">
+        <v>3237</v>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>[[1.37373048e-03 2.70606497e-02 4.58109965e-02 ... 3.74439307e-02
+  2.31550237e-02 7.41225862e-02]
+ [9.84795076e-03 5.17231964e-02 3.06429111e-02 ... 2.90286259e-02
+  7.50852626e-03 7.86959876e-02]
+ [1.22401318e-02 9.35088900e-02 1.06173354e-01 ... 7.02862620e-02
+  2.15478522e-02 5.78223988e-02]
+ ...
+ [5.42269464e-04 1.35555300e-04 1.37481847e-06 ... 2.36553139e-07
+  1.71777868e-07 6.67245028e-06]
+ [5.36750348e-04 1.34120616e-04 7.79104017e-07 ... 1.60148686e-07
+  1.27831289e-07 6.49327365e-06]
+ [5.30162800e-04 1.32247682e-04 3.98975317e-07 ... 1.00044691e-07
+  9.41785366e-08 6.31053300e-06]]</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>0.1666019217935642</v>
+      </c>
+      <c r="B278" t="n">
+        <v>3129</v>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>[[1.08843858e-01 4.96505226e-02 2.90863575e-02 ... 6.20214632e-03
+  4.74484242e-02 9.93841316e-02]
+ [1.12010433e-01 2.80308423e-02 2.20608952e-02 ... 1.47362300e-02
+  2.12003375e-02 1.31804004e-01]
+ [1.67278241e-01 4.76676144e-02 1.54195871e-02 ... 1.16183573e-02
+  1.44674033e-02 1.92645881e-01]
+ ...
+ [6.24705206e-04 1.56708262e-04 7.23111806e-07 ... 3.25159137e-08
+  2.42443163e-07 6.33630466e-05]
+ [5.99617560e-04 1.49732085e-04 5.00700929e-07 ... 2.83528398e-08
+  2.27198131e-07 6.25369977e-05]
+ [6.14191443e-04 1.54480772e-04 2.88631350e-07 ... 1.70028257e-08
+  2.12226187e-07 6.25593671e-05]]</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>0.1197398558540509</v>
+      </c>
+      <c r="B279" t="n">
+        <v>3096</v>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>[[5.18094284e-02 1.01108351e-02 8.52756474e-03 ... 2.94534849e-03
+  8.29961223e-03 4.06099538e-03]
+ [5.95885482e-02 1.29902562e-02 3.77726218e-03 ... 3.71567508e-03
+  8.25163622e-03 2.22416933e-03]
+ [1.14229562e-01 3.65867515e-02 2.95581190e-02 ... 1.95853526e-03
+  1.11525878e-02 1.78152876e-02]
+ ...
+ [1.33164990e-05 3.60429265e-06 3.28969833e-07 ... 3.50938609e-08
+  3.07620253e-08 4.69835324e-06]
+ [1.32167325e-05 3.48318413e-06 1.97426395e-07 ... 2.62455624e-08
+  2.59122914e-08 4.60332650e-06]
+ [1.34967732e-05 3.48781882e-06 1.15622829e-07 ... 1.10254339e-08
+  1.88980734e-08 4.57429609e-06]]</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>0.07723081176437424</v>
+      </c>
+      <c r="B280" t="n">
+        <v>493</v>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>[[7.14904457e-02 9.05360223e-01 2.00071083e+00 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]
+ [1.28888226e-02 6.84242637e-02 1.11067113e-01 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]
+ [1.96414763e-03 5.70342912e-03 8.13476701e-03 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]
+ ...
+ [8.60684546e-08 2.27898621e-08 2.33067921e-09 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]
+ [8.24392191e-08 2.20110582e-08 4.01491920e-09 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]
+ [8.97542486e-08 2.35352957e-08 2.65533171e-09 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]]</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>0.448287876737413</v>
+      </c>
+      <c r="B281" t="n">
+        <v>3740</v>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>[[2.45003264e+00 1.17630192e+01 1.29535305e+01 ... 6.09490793e+01
+  2.03894953e+01 1.90967229e+01]
+ [4.36355845e+00 9.10577340e+00 5.80631704e+00 ... 2.51880357e+01
+  7.18524983e+00 5.89161557e+00]
+ [7.76558980e+00 1.18395967e+01 3.31482076e+00 ... 3.60450980e+00
+  3.21008969e+00 1.01212409e+00]
+ ...
+ [1.19223805e-03 8.79808236e-04 7.74639342e-04 ... 1.06369266e-04
+  4.50278985e-04 2.45019996e-04]
+ [1.18393594e-03 8.11861721e-04 6.13481894e-04 ... 1.01919011e-04
+  3.02188511e-04 1.70111545e-04]
+ [1.18313729e-03 8.11522665e-04 5.77118443e-04 ... 6.03906691e-05
+  1.28421696e-04 1.23394840e-04]]</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>0.4388954443380908</v>
+      </c>
+      <c r="B282" t="n">
+        <v>3729</v>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>[[4.05413767e+00 7.53900941e+00 1.60022707e+01 ... 3.15747056e+01
+  5.24657320e+01 3.10472112e+01]
+ [1.60033322e+00 2.86362580e+00 2.45132568e+00 ... 1.78039068e+01
+  1.65247705e+01 4.05268720e+00]
+ [1.70710778e+00 8.38773026e+00 3.15873979e+00 ... 4.23443912e+00
+  2.38881125e+00 4.57908425e+00]
+ ...
+ [1.15528881e-03 3.58164743e-04 1.03576087e-04 ... 1.84854718e-04
+  1.44440923e-04 4.54017025e-04]
+ [9.73647050e-04 2.95152644e-04 8.16900564e-05 ... 1.68305986e-04
+  1.35671835e-04 4.34384702e-04]
+ [1.05091040e-03 3.02365984e-04 7.66937802e-05 ... 2.72692079e-04
+  2.00081442e-04 4.41855530e-04]]</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>0.4327493755533071</v>
+      </c>
+      <c r="B283" t="n">
+        <v>3713</v>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>[[9.34050423e+00 6.75990289e+01 1.25036586e+02 ... 1.96082179e+01
+  2.02212876e+01 1.02466572e+01]
+ [6.31964853e+00 4.86570728e+01 5.25772603e+01 ... 4.24659388e+00
+  2.79636517e+00 4.10639926e+00]
+ [4.29487923e+00 8.07549667e+00 7.22840222e+00 ... 6.57286743e+00
+  1.26613940e+00 1.78940114e+00]
+ ...
+ [3.45294144e-04 4.55771004e-04 1.09301324e-04 ... 7.97548339e-04
+  1.15891538e-03 1.39419389e-03]
+ [2.87885049e-04 4.07809570e-04 1.33170498e-04 ... 8.64900266e-04
+  1.06523337e-03 1.26524911e-03]
+ [2.64706347e-04 3.91610624e-04 1.77327303e-04 ... 4.03656660e-04
+  5.26651783e-04 1.15471793e-03]]</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>0.4285681720527052</v>
+      </c>
+      <c r="B284" t="n">
+        <v>3726</v>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>[[7.07650205e+00 1.17486433e+01 2.65322658e+01 ... 4.28365519e+01
+  4.22317288e+01 2.50098228e+01]
+ [8.52705170e+00 1.05991917e+01 1.32753812e+01 ... 2.82494927e+00
+  8.29310906e+00 6.82022688e+00]
+ [4.93004699e+00 5.41419588e+00 4.18705685e+00 ... 1.14386034e+00
+  9.76104040e-01 1.66713651e+00]
+ ...
+ [8.34200377e-04 2.69547328e-04 5.88067333e-05 ... 1.76842951e-04
+  1.13960236e-04 4.67121696e-03]
+ [8.30483728e-04 2.65366479e-04 5.49973129e-05 ... 2.44714980e-04
+  9.90827576e-05 4.59505516e-03]
+ [8.78425721e-04 2.77870759e-04 5.32316043e-05 ... 1.24408339e-04
+  8.96528331e-05 4.49639367e-03]]</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>0.4241240929042164</v>
+      </c>
+      <c r="B285" t="n">
+        <v>3631</v>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>[[6.74205740e+01 1.43855660e+02 1.35065148e+02 ... 2.14065890e+01
+  2.00881443e+01 2.81250391e+01]
+ [7.48805995e+00 5.91645534e+00 1.37712153e+01 ... 6.72469111e+00
+  8.64042337e+00 1.34698738e+01]
+ [7.60408227e+00 3.42481230e+00 2.32236141e+00 ... 9.93943678e-01
+  1.10876278e+00 8.92182394e+00]
+ ...
+ [1.79339931e-03 6.44236052e-04 1.67071998e-02 ... 1.45946462e-05
+  1.21065902e-05 2.27266856e-04]
+ [1.81400156e-03 6.02214171e-04 1.41304234e-02 ... 1.94116470e-05
+  1.47799700e-05 1.99246396e-04]
+ [1.90285619e-03 5.96408183e-04 3.56318681e-03 ... 2.53707131e-05
+  1.69353954e-05 1.64321158e-04]]</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>0.4094276616746026</v>
+      </c>
+      <c r="B286" t="n">
+        <v>3615</v>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>[[3.27193764e+00 2.86696917e+01 7.74146986e+01 ... 2.12247914e+01
+  5.17664612e+01 4.45684422e+01]
+ [2.16706434e+00 1.71944045e+01 2.55566918e+01 ... 6.28758972e+00
+  8.26999705e+00 1.98276092e+01]
+ [1.42232698e+00 2.45089064e+00 2.02456377e+00 ... 1.90405594e+00
+  1.29313320e+00 2.74222466e+00]
+ ...
+ [9.42599380e-03 2.46478149e-03 6.45901365e-05 ... 1.38173971e-05
+  4.08386964e-05 9.55747031e-04]
+ [9.22523372e-03 2.42474135e-03 7.12119816e-05 ... 1.35178878e-05
+  3.27851354e-05 9.19265098e-04]
+ [9.20875837e-03 2.45296791e-03 8.50162667e-05 ... 1.47959084e-05
+  2.59352513e-05 8.73820027e-04]]</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>0.4015244504963668</v>
+      </c>
+      <c r="B287" t="n">
+        <v>3654</v>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>[[2.66975880e+01 7.28426447e+01 5.91485246e+01 ... 5.81327530e+01
+  1.12797451e+02 6.13997520e+01]
+ [2.97162486e+01 5.01277892e+01 2.62052830e+01 ... 1.15289877e+01
+  2.08305800e+01 1.82366068e+01]
+ [1.29949805e+01 6.24670934e+00 1.86393194e+00 ... 2.19487400e+00
+  1.19011185e+00 2.01796377e+00]
+ ...
+ [4.73832911e-04 1.57171881e-04 5.27870094e-05 ... 7.80392635e-05
+  6.54060466e-05 6.23226929e-04]
+ [4.93207015e-04 1.70610832e-04 4.34543235e-05 ... 6.50557939e-05
+  3.32606635e-05 5.22797785e-04]
+ [5.99202619e-04 2.15740001e-04 4.31003843e-05 ... 5.30506086e-05
+  4.45093291e-05 5.29333881e-04]]</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>0.4017159926252641</v>
+      </c>
+      <c r="B288" t="n">
+        <v>3576</v>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>[[2.29613755e+01 1.08388173e+02 1.04432065e+02 ... 4.38561310e+01
+  1.12644033e+01 3.69192149e+01]
+ [2.22119594e+01 4.28769802e+01 3.52147537e+01 ... 1.49126355e+01
+  6.11787950e+00 1.01284749e+01]
+ [8.20139875e+00 4.98403254e+00 2.39740000e+00 ... 6.72480395e-01
+  4.81402873e-01 1.51859920e+00]
+ ...
+ [1.73302884e-03 5.16818612e-04 3.47142961e-05 ... 2.40244698e-05
+  1.21770422e-05 1.41407705e-03]
+ [1.67843561e-03 4.99173758e-04 3.20540913e-05 ... 2.20395929e-05
+  9.73642640e-06 1.44312611e-03]
+ [1.66215667e-03 4.75693535e-04 2.38041251e-05 ... 2.08771932e-05
+  9.14800672e-06 1.45185442e-03]]</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>0.3901465036698794</v>
+      </c>
+      <c r="B289" t="n">
+        <v>3436</v>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>[[3.83737836e+01 4.72532045e+01 2.57297622e+01 ... 2.49753076e+02
+  2.40685828e+02 1.14611401e+02]
+ [2.52611771e+01 1.93341917e+01 5.93022113e+00 ... 3.35389910e+01
+  5.00644782e+01 1.96317373e+01]
+ [1.06957632e+01 5.48447307e+00 4.33442579e+00 ... 2.36206475e+00
+  2.17770222e+00 1.81452527e+00]
+ ...
+ [7.34483203e-04 5.96838537e-04 6.31665352e-04 ... 2.47924092e-05
+  1.71474805e-05 2.74669697e-03]
+ [8.44239816e-04 6.49098675e-04 6.73806524e-04 ... 2.40419469e-05
+  1.98593049e-05 2.72062064e-03]
+ [1.04225631e-03 5.18246327e-04 3.31119242e-04 ... 2.07474853e-05
+  1.87918961e-05 2.71793250e-03]]</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>0.09796026678178048</v>
+      </c>
+      <c r="B290" t="n">
+        <v>541</v>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>[[2.07554933e-01 3.95903902e-01 5.75421683e-01 ... 4.69330872e-01
+  3.45720301e-01 2.37656816e-01]
+ [1.59278760e+00 5.02529411e+00 4.72745811e+00 ... 1.18349610e+00
+  1.22305627e+00 2.40639918e+00]
+ [4.33011815e+00 1.16521172e+01 8.24555158e+00 ... 3.45528556e+00
+  4.37493292e+00 3.87790213e+00]
+ ...
+ [2.06984840e-05 5.16009410e-06 2.18240989e-09 ... 2.03951593e-09
+  5.69399759e-09 1.17260946e-06]
+ [2.04314505e-05 5.09249598e-06 8.21441027e-10 ... 6.69057701e-10
+  4.50486593e-09 1.15775977e-06]
+ [2.03117587e-05 5.06334602e-06 6.06598871e-10 ... 7.10301280e-10
+  4.37784408e-09 1.14969060e-06]]</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>0.09585720394454593</v>
+      </c>
+      <c r="B291" t="n">
+        <v>469</v>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>[[2.57050197e-01 2.17127934e-01 1.77931189e-01 ... 2.28709978e+00
+  7.56370516e-01 9.37066018e-01]
+ [1.05700935e+00 1.10882374e+00 3.33901962e-01 ... 3.22224958e+00
+  8.32518494e-01 4.82784430e-01]
+ [2.10142518e+00 3.23965624e+00 1.04226191e+00 ... 1.17729898e+00
+  1.41632190e+00 7.80275900e-01]
+ ...
+ [2.10150641e-07 5.35450014e-08 1.49998808e-09 ... 1.34065116e-09
+  3.67890503e-09 7.76968914e-07]
+ [2.08359638e-07 5.25006572e-08 4.87966555e-10 ... 9.98681669e-10
+  3.12363716e-09 7.67688505e-07]
+ [2.05329303e-07 5.17793434e-08 6.78725810e-10 ... 9.89724137e-10
+  3.00315343e-09 7.69151790e-07]]</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>0.05332174931620787</v>
+      </c>
+      <c r="B292" t="n">
+        <v>1168</v>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>[[3.91044154e-03 1.29886420e-02 5.34497644e-03 ... 1.02870296e-01
+  5.50597923e-02 4.03188012e-02]
+ [2.33840234e-03 3.68590592e-03 1.00202800e-03 ... 1.11174294e-01
+  2.06815524e-01 7.45812485e-02]
+ [2.49438452e-03 1.37662398e-03 4.89680724e-04 ... 1.01438062e+00
+  1.69004481e+00 9.69414857e-01]
+ ...
+ [4.30992416e-08 1.30509492e-08 2.50393020e-09 ... 2.26006243e-09
+  2.89672972e-08 8.63377708e-06]
+ [4.61830454e-08 1.29078459e-08 2.05762431e-09 ... 1.25316294e-09
+  2.77965890e-08 8.54381269e-06]
+ [3.79522065e-08 9.97504592e-09 5.93417540e-10 ... 9.24816061e-10
+  2.70142549e-08 8.42532674e-06]]</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>0.05856041742967995</v>
+      </c>
+      <c r="B293" t="n">
+        <v>1618</v>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>[[3.11837958e+00 4.23232463e+01 5.90919061e+01 ... 4.16679649e-02
+  1.49230404e-02 2.12720849e-02]
+ [5.28461143e+00 1.13162119e+02 1.47676316e+02 ... 1.47155558e-01
+  8.62429301e-02 7.13593169e-02]
+ [7.85674455e+00 1.30971680e+02 1.73936530e+02 ... 5.04636487e-02
+  3.84290107e-02 5.39367841e-02]
+ ...
+ [1.88097026e-08 2.35693839e-07 6.76478668e-07 ... 6.01283023e-10
+  6.70130243e-10 1.30851438e-09]
+ [1.53678809e-08 1.45912017e-07 3.82873780e-07 ... 4.95534666e-10
+  6.54791999e-10 1.12813154e-09]
+ [1.01336618e-08 7.67801504e-08 2.63079540e-07 ... 3.85710538e-10
+  7.82242568e-10 1.56250922e-09]]</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>0.06113262226177456</v>
+      </c>
+      <c r="B294" t="n">
+        <v>1100</v>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>[[3.25579053e-03 7.06750730e-03 1.47231182e-02 ... 1.25251383e-02
+  3.14951712e-03 1.12082080e-02]
+ [4.19078573e-03 4.55142431e-03 1.35220294e-02 ... 3.81853507e-03
+  1.04309270e-02 4.00952676e-02]
+ [6.45483579e-03 7.03120160e-03 2.68807479e-03 ... 1.23806617e-03
+  2.29686696e-02 1.16224150e-01]
+ ...
+ [1.02494385e-08 2.05968196e-08 1.83650584e-08 ... 1.85050035e-09
+  3.33621252e-09 5.47094149e-07]
+ [1.20555109e-08 2.22941674e-08 1.75553887e-08 ... 8.42464421e-10
+  2.65428664e-09 5.41674016e-07]
+ [1.38941067e-09 2.34221303e-09 1.95245573e-09 ... 8.42413207e-10
+  2.73415246e-09 5.31023923e-07]]</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>0.1790541186953677</v>
+      </c>
+      <c r="B295" t="n">
+        <v>1946</v>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>[[1.51014444e-01 8.82935475e-02 2.78454557e-03 ... 9.76578736e-03
+  1.16643071e-02 3.14700417e-01]
+ [4.62081869e-01 8.16036664e-01 1.49685764e+00 ... 2.06721257e-02
+  2.81428130e-02 5.51974856e-01]
+ [1.91659443e+00 8.06832524e+00 1.51509301e+01 ... 1.62665914e-01
+  2.07984090e-01 6.21623945e-01]
+ ...
+ [3.16919854e-05 7.97310190e-06 1.15204578e-07 ... 8.64460442e-07
+  1.69946242e-06 2.90256428e-04]
+ [3.12985824e-05 7.90582052e-06 1.45626219e-07 ... 7.03118509e-07
+  1.59103099e-06 2.87255980e-04]
+ [3.11275871e-05 7.86878364e-06 1.18383326e-07 ... 7.14802519e-07
+  1.68724012e-06 2.92394301e-04]]</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>0.2166900546463705</v>
+      </c>
+      <c r="B296" t="n">
+        <v>2111</v>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>[[3.09686351e-01 8.20330908e-02 1.44787047e-03 ... 1.18346799e-03
+  8.23254367e-04 3.01259636e-01]
+ [4.51149117e-01 1.48715831e-01 3.61179313e-02 ... 2.40776686e-02
+  1.02516661e-02 5.55500278e-01]
+ [1.18309450e+00 5.68043125e-01 3.55319111e-01 ... 9.16940756e-02
+  2.84873071e-01 2.61697035e+00]
+ ...
+ [6.09985492e-06 1.84747077e-06 4.20875677e-07 ... 5.83646103e-07
+  2.08729677e-06 4.95588005e-04]
+ [6.29901655e-06 1.86329451e-06 3.41445230e-07 ... 6.01121616e-07
+  2.08777852e-06 4.89559623e-04]
+ [5.71134720e-06 1.65510025e-06 3.41431173e-07 ... 7.57131701e-07
+  2.16861058e-06 4.89059197e-04]]</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>0.2270233708616274</v>
+      </c>
+      <c r="B297" t="n">
+        <v>2329</v>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>[[6.84705176e-01 2.70088293e-01 9.40051299e-03 ... 2.67677990e-03
+  1.80592992e-03 1.02883306e-01]
+ [1.10761701e+00 3.47152621e-01 1.76167608e-02 ... 8.15616636e-03
+  9.53018622e-03 1.00744434e-01]
+ [2.72854721e+00 1.20683623e+00 2.82135316e-01 ... 6.95211087e-01
+  1.17963032e+00 3.06144025e+00]
+ ...
+ [6.08212215e-04 1.52545926e-04 8.00105273e-07 ... 6.89168146e-07
+  1.56922925e-06 3.31723032e-04]
+ [5.97444857e-04 1.49724922e-04 7.89377885e-07 ... 5.51217209e-07
+  1.49135801e-06 3.27763933e-04]
+ [5.80517057e-04 1.45318738e-04 6.08486991e-07 ... 5.84041337e-07
+  1.53023795e-06 3.26937883e-04]]</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>0.2060411290300962</v>
+      </c>
+      <c r="B298" t="n">
+        <v>2559</v>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>[[1.02152132e+00 3.92955040e-01 5.88470840e-04 ... 7.37933721e-04
+  2.20489869e-03 3.76464922e-01]
+ [1.86649511e+00 6.37739992e-01 1.78277212e-02 ... 2.56308344e-02
+  1.85001713e-02 6.90851803e-01]
+ [7.66393742e+00 2.98054266e+00 3.87400652e-01 ... 1.87003019e+00
+  2.51431570e+00 5.40756010e+00]
+ ...
+ [1.04182675e-03 2.60355071e-04 4.77445556e-07 ... 4.89163892e-07
+  7.26321065e-07 5.01265824e-05]
+ [1.02464419e-03 2.55848425e-04 3.98196068e-07 ... 4.17449075e-07
+  6.90698740e-07 4.86855957e-05]
+ [1.01099743e-03 2.52377375e-04 6.33472993e-07 ... 3.08809098e-07
+  4.52041030e-07 4.70504914e-05]]</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>0.1730821458365341</v>
+      </c>
+      <c r="B299" t="n">
+        <v>2667</v>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>[[2.37438512e-01 7.63866120e-02 3.75497273e-03 ... 1.69960106e-03
+  1.02451196e-02 4.22588531e-01]
+ [4.02338848e-01 1.08347078e-01 1.96010604e-02 ... 1.62832580e-03
+  2.61405053e-02 5.72020721e-01]
+ [2.08545926e+00 1.50819092e+00 4.22400476e-01 ... 2.99157827e-01
+  2.47681625e-01 2.19938772e+00]
+ ...
+ [6.93577987e-04 1.73237293e-04 6.85098181e-07 ... 7.39324387e-07
+  6.03771474e-07 6.70848177e-06]
+ [6.88205540e-04 1.72029515e-04 5.90969963e-07 ... 8.38158675e-07
+  7.54428339e-07 6.68673952e-06]
+ [6.72669035e-04 1.67898087e-04 4.11321367e-07 ... 7.27083008e-07
+  6.39352923e-07 6.49761549e-06]]</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>0.1756195711022993</v>
+      </c>
+      <c r="B300" t="n">
+        <v>2688</v>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>[[9.02340425e-01 2.53172896e-01 1.46561590e-02 ... 6.30210661e-03
+  1.32285667e-02 6.61916028e-01]
+ [1.41098473e+00 4.05242620e-01 3.10914781e-02 ... 3.46349241e-02
+  4.65802067e-02 1.64616254e+00]
+ [7.82375256e+00 7.22879347e+00 6.68096839e+00 ... 1.13421898e+01
+  1.04486614e+01 2.25140081e+01]
+ ...
+ [9.85269505e-05 2.48743263e-05 4.01356041e-07 ... 4.77100051e-07
+  4.00851135e-07 2.87753712e-05]
+ [9.71902778e-05 2.45320329e-05 4.11135579e-07 ... 4.76945108e-07
+  4.22108660e-07 2.77717365e-05]
+ [9.76002114e-05 2.45925575e-05 3.88150863e-07 ... 4.50468853e-07
+  5.18026515e-07 2.66352888e-05]]</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>0.1789175894026125</v>
+      </c>
+      <c r="B301" t="n">
+        <v>2503</v>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>[[8.80840755e-01 2.11478577e-01 4.25303952e-03 ... 6.35475314e-03
+  1.48146416e-02 4.99102244e-01]
+ [1.42759529e+00 3.54872765e-01 1.20177537e-02 ... 3.99837942e-01
+  3.36443733e-01 1.64044545e+00]
+ [5.28589247e+00 1.94585686e+00 3.91251062e-01 ... 4.94008075e+01
+  5.49454214e+01 5.10149168e+01]
+ ...
+ [1.33958765e-05 3.87064281e-06 4.72894875e-07 ... 3.54278887e-07
+  1.16093698e-06 2.68844193e-04]
+ [1.30051027e-05 3.84853702e-06 5.26151585e-07 ... 3.95219445e-07
+  1.15926939e-06 2.65979182e-04]
+ [1.22848632e-05 3.71032266e-06 5.60214476e-07 ... 4.85034982e-07
+  1.15060771e-06 2.54197453e-04]]</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>0.2826276757429387</v>
+      </c>
+      <c r="B302" t="n">
+        <v>6020</v>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>[[2.69491359e+00 1.33955749e+01 6.82990433e+01 ... 3.90669660e+02
+  4.97274805e+02 3.05706173e+02]
+ [2.27127451e+00 3.87857125e+01 3.82361501e+02 ... 3.91382480e+02
+  1.23620517e+03 8.40402972e+02]
+ [7.09581926e+00 7.21929082e+01 4.43887209e+02 ... 2.58847731e+02
+  4.56117749e+02 3.79348920e+02]
+ ...
+ [4.50822342e-06 5.85162038e-06 6.13471540e-06 ... 1.33100462e-04
+  8.65904407e-05 2.72221380e-04]
+ [3.79104202e-06 6.47074967e-06 5.54380654e-06 ... 9.90846544e-05
+  7.23206486e-05 2.27176467e-04]
+ [3.60165619e-06 4.61667679e-06 5.39651350e-06 ... 6.72841812e-05
+  5.89646645e-05 2.19398509e-04]]</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>0.3406104563605638</v>
+      </c>
+      <c r="B303" t="n">
+        <v>5936</v>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>[[3.30866593e+01 1.08632911e+02 3.05350231e+02 ... 4.28734840e+02
+  1.95337734e+02 1.25020497e+02]
+ [1.77866349e+02 9.25208725e+02 1.90817809e+03 ... 4.65657260e+02
+  3.03426194e+02 2.10393333e+02]
+ [2.30342435e+02 8.12941458e+02 1.41257618e+03 ... 7.01466992e+01
+  1.78150253e+02 1.79403173e+02]
+ ...
+ [4.05456835e-03 1.02815542e-03 2.13272704e-05 ... 1.92668590e-03
+  1.24470487e-03 5.04331114e-03]
+ [3.95343571e-03 1.00312758e-03 2.72066648e-05 ... 8.00728220e-04
+  3.84410032e-04 4.22867119e-03]
+ [3.88706778e-03 9.84361880e-04 1.47837433e-05 ... 5.43015411e-04
+  3.59747069e-04 4.10513240e-03]]</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>0.3285187931354063</v>
+      </c>
+      <c r="B304" t="n">
+        <v>5493</v>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>[[3.26080946e+01 9.65396101e+01 2.67150576e+02 ... 1.45338227e+02
+  1.24517071e+02 1.94711185e+02]
+ [9.90414891e+01 4.75847881e+02 1.09563426e+03 ... 2.71579060e+02
+  3.66151718e+02 4.61353404e+02]
+ [6.73538079e+01 2.28466292e+02 7.92809023e+02 ... 5.67491782e+01
+  1.13835113e+02 1.47611316e+02]
+ ...
+ [4.67737315e-04 2.20318184e-04 1.24599301e-04 ... 1.35750498e-05
+  1.42735962e-05 7.13332140e-04]
+ [4.64256060e-04 1.76078266e-04 5.68181702e-05 ... 1.45992444e-05
+  1.70495688e-05 7.02455904e-04]
+ [4.62158669e-04 2.13771302e-04 1.35642493e-04 ... 2.00212534e-05
+  2.53042288e-05 6.30135733e-04]]</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>0.2547175785660582</v>
+      </c>
+      <c r="B305" t="n">
+        <v>4693</v>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>[[6.08054002e+01 7.81194178e+01 1.35888067e+02 ... 1.22229663e+01
+  4.29600168e+01 4.61361828e+01]
+ [1.38419940e+02 1.68803843e+02 2.77369793e+02 ... 1.57060852e+01
+  4.63537077e+01 4.58634298e+01]
+ [1.98195027e+02 2.28356417e+02 1.50133116e+02 ... 1.05659387e+01
+  1.78157456e+01 6.98943867e+00]
+ ...
+ [4.88534472e-03 1.83304306e-03 1.13595885e-03 ... 5.81584603e-07
+  1.54876271e-06 2.83910488e-04]
+ [4.67520820e-03 1.24445094e-03 8.56793284e-05 ... 6.68158388e-07
+  1.45239656e-06 2.78939834e-04]
+ [7.97019591e-03 2.20181603e-03 1.92614997e-04 ... 1.47959149e-06
+  2.50612998e-06 2.77321380e-04]]</t>
+        </is>
+      </c>
+      <c r="D305" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>0.1405581855479499</v>
+      </c>
+      <c r="B306" t="n">
+        <v>1652</v>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>[[9.66181718e-02 8.20910017e-02 9.37254889e-02 ... 4.60089604e-02
+  6.36899376e-02 1.29813250e-01]
+ [4.72690757e-02 4.46056358e-03 1.60500302e-03 ... 3.82027459e-03
+  7.44302146e-03 2.57414241e-02]
+ [4.18171456e-01 2.51059745e-01 1.44963487e-01 ... 2.67188419e-02
+  5.09587805e-02 6.87483482e-02]
+ ...
+ [6.73899412e-06 1.68096738e-06 3.39981425e-09 ... 5.93969422e-09
+  2.70437723e-07 7.39458683e-05]
+ [6.66213046e-06 1.66231043e-06 3.72843962e-09 ... 5.44884916e-09
+  2.30028611e-07 7.20195110e-05]
+ [6.59609087e-06 1.64664683e-06 5.31774593e-09 ... 6.07019965e-09
+  2.27285623e-07 7.11215361e-05]]</t>
+        </is>
+      </c>
+      <c r="D306" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>0.1817908508213428</v>
+      </c>
+      <c r="B307" t="n">
+        <v>1878</v>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>[[2.57127958e-01 1.07527258e-01 1.15017176e-01 ... 1.62920315e-01
+  9.27930207e-02 4.19342801e-01]
+ [9.92457101e-02 2.77961157e-02 5.55937056e-03 ... 1.55410038e-02
+  4.01935655e-02 4.56029222e-01]
+ [6.65430377e-02 2.06375242e-02 1.28663497e-02 ... 3.19019733e-02
+  8.15350437e-02 5.36579269e-01]
+ ...
+ [1.04344437e-04 2.60165318e-05 9.32684702e-09 ... 1.40969266e-08
+  1.21857759e-08 8.45615390e-08]
+ [1.02962509e-04 2.56690412e-05 9.34257062e-09 ... 1.25874565e-08
+  8.75895345e-09 8.39009698e-08]
+ [1.02328097e-04 2.55175603e-05 9.57107967e-09 ... 1.31910831e-08
+  9.38736949e-09 7.79286106e-08]]</t>
+        </is>
+      </c>
+      <c r="D307" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>0.1414307330167586</v>
+      </c>
+      <c r="B308" t="n">
+        <v>1344</v>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>[[1.43890460e-01 1.38155520e-01 1.26795676e-01 ... 3.10745309e-01
+  1.72482579e-01 4.19658590e-01]
+ [7.82032763e-02 2.87394725e-02 8.16419245e-03 ... 2.39978848e-01
+  1.41032345e-01 1.78806362e-01]
+ [7.86862121e-02 3.63280671e-02 9.34799446e-03 ... 7.73471293e-02
+  3.71114106e-02 2.76651399e-01]
+ ...
+ [5.20297637e-05 1.29817475e-05 9.88037872e-09 ... 5.11894269e-09
+  1.32902187e-07 3.98956041e-05]
+ [5.13366994e-05 1.28060236e-05 8.89159247e-09 ... 5.67624057e-09
+  1.31525005e-07 3.94578065e-05]
+ [5.07469049e-05 1.26584143e-05 1.14283934e-08 ... 6.43292049e-09
+  1.27788542e-07 3.89752242e-05]]</t>
+        </is>
+      </c>
+      <c r="D308" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>0.228332645552922</v>
+      </c>
+      <c r="B309" t="n">
+        <v>1471</v>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>[[3.36985158e-02 1.23934704e-01 4.03407135e-01 ... 1.11214954e-01
+  8.40036627e-02 3.13504125e-01]
+ [1.41214785e-01 1.98998691e-01 1.15995408e-01 ... 4.29074381e-03
+  1.35970150e-02 1.61955837e-01]
+ [2.48132245e-01 6.52687579e-02 1.24422668e-01 ... 4.78903547e-02
+  3.05555744e-02 9.10307885e-02]
+ ...
+ [7.41110472e-04 1.84701419e-04 1.47923807e-08 ... 5.99733475e-08
+  1.39722562e-07 3.41438996e-05]
+ [7.32801329e-04 1.82626447e-04 1.06262184e-08 ... 6.99012714e-08
+  1.42080811e-07 3.34676659e-05]
+ [7.28480220e-04 1.81562048e-04 1.09608639e-08 ... 2.64478823e-08
+  1.20118555e-07 3.32786980e-05]]</t>
+        </is>
+      </c>
+      <c r="D309" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>0.2487371453829125</v>
+      </c>
+      <c r="B310" t="n">
+        <v>2043</v>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>[[5.12541108e-03 2.63230156e-03 1.32048377e-03 ... 1.80836506e-02
+  2.08548454e-02 2.16041870e-02]
+ [1.76223936e-02 1.19683250e-02 1.49157676e-03 ... 8.02070253e-03
+  1.22103209e-02 2.41593941e-02]
+ [4.01919584e-02 2.75183839e-02 1.10436758e-02 ... 4.86140878e-02
+  2.28455329e-02 5.08034150e-02]
+ ...
+ [2.76764432e-06 4.11145211e-06 2.80378755e-06 ... 2.00387638e-06
+  1.97307818e-06 4.78935784e-06]
+ [1.66392514e-06 1.35540211e-06 1.36287821e-06 ... 1.47713635e-06
+  4.45531520e-07 3.86367593e-06]
+ [1.27994209e-06 3.79838171e-07 7.87089998e-08 ... 5.84837759e-08
+  8.29267152e-08 2.94419660e-06]]</t>
+        </is>
+      </c>
+      <c r="D310" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>0.1095244680441815</v>
+      </c>
+      <c r="B311" t="n">
+        <v>7503</v>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>[[1.05576195e-01 1.77108371e-01 2.45082794e-01 ... 9.79422617e-02
+  4.67559196e-02 7.22273487e-02]
+ [3.71332175e-01 1.01366076e+00 5.82217818e-01 ... 8.46309801e-02
+  1.16695660e-01 1.14093265e-01]
+ [5.36220866e-01 1.10770242e+00 3.76386548e-01 ... 2.02008596e-01
+  1.20081316e-01 5.81155596e-02]
+ ...
+ [3.24692847e-05 8.76002787e-06 8.49199583e-07 ... 6.46504595e-07
+  1.38498375e-06 3.73435361e-05]
+ [3.22906828e-05 8.31615266e-06 7.56994523e-07 ... 5.14092087e-07
+  5.13050820e-07 3.55473575e-05]
+ [5.22981566e-05 3.89807269e-05 3.06840938e-05 ... 3.12148837e-05
+  3.16702147e-05 5.80880555e-05]]</t>
+        </is>
+      </c>
+      <c r="D311" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>0.1104072877005731</v>
+      </c>
+      <c r="B312" t="n">
+        <v>7903</v>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>[[4.73849241e-03 3.10478601e-02 1.23537345e-01 ... 1.55365887e-01
+  1.69731877e-01 1.73256915e-01]
+ [1.60126028e-03 4.30224627e-02 2.41527797e-01 ... 9.12990996e-02
+  3.88675889e-01 2.90300992e-01]
+ [2.90820399e-02 1.69725971e-01 1.23857019e-01 ... 3.66675538e-01
+  5.48934153e-01 1.22621010e-01]
+ ...
+ [5.12105830e-05 1.33130499e-05 5.56592714e-07 ... 6.28995615e-07
+  8.03521024e-07 4.73626833e-05]
+ [4.67765581e-05 1.21704559e-05 3.43824770e-07 ... 9.47760645e-07
+  5.77983022e-07 4.72329492e-05]
+ [5.87799540e-05 4.05267138e-05 3.08787220e-05 ... 3.20073887e-05
+  3.10760973e-05 7.78982017e-05]]</t>
+        </is>
+      </c>
+      <c r="D312" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>0.1173183453245355</v>
+      </c>
+      <c r="B313" t="n">
+        <v>7764</v>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>[[1.90834225e-02 1.10542768e-02 2.86073846e-02 ... 9.95121273e-02
+  5.17903348e-02 5.61713846e-02]
+ [2.95381064e-02 3.86852358e-02 7.94886503e-02 ... 2.68425158e-01
+  1.70503034e-01 5.35790446e-02]
+ [7.30848110e-02 1.29212346e-01 1.59305610e-01 ... 1.37869813e-01
+  1.76976043e-01 8.64589322e-02]
+ ...
+ [8.27320433e-05 2.12747327e-05 5.30698766e-07 ... 8.88934047e-07
+  1.65237890e-06 2.25131097e-04]
+ [7.65427536e-05 1.95066106e-05 3.42171006e-07 ... 5.45855803e-07
+  1.89337248e-06 2.25529781e-04]
+ [9.61747672e-05 5.16996055e-05 3.38011193e-05 ... 2.98929694e-05
+  3.41795935e-05 2.57118366e-04]]</t>
+        </is>
+      </c>
+      <c r="D313" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>0.1353103466579975</v>
+      </c>
+      <c r="B314" t="n">
+        <v>7460</v>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>[[6.75917961e-02 7.96412454e-02 1.22633610e-01 ... 9.35146617e-02
+  1.61510194e-01 1.62814297e-01]
+ [1.20245508e-01 7.78376917e-02 1.60746022e-01 ... 3.37608207e-01
+  3.82927931e-01 1.44145099e-01]
+ [2.13493693e-01 3.57588796e-01 1.53788566e-01 ... 1.27065260e-01
+  1.93088676e-01 3.47565019e-02]
+ ...
+ [9.99552539e-05 2.60833315e-05 1.31610872e-06 ... 1.09302397e-06
+  1.29015359e-06 1.77563438e-04]
+ [9.61664340e-05 2.50265374e-05 7.80344256e-07 ... 1.17637461e-06
+  1.44929476e-06 1.70513907e-04]
+ [1.01160985e-04 5.11588231e-05 3.06972853e-05 ... 3.32398601e-05
+  3.31751904e-05 1.89097837e-04]]</t>
+        </is>
+      </c>
+      <c r="D314" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>0.1434324583002893</v>
+      </c>
+      <c r="B315" t="n">
+        <v>7981</v>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>[[7.07225555e-02 5.04103060e-02 4.03397760e-02 ... 1.01117968e-01
+  4.96252492e-02 7.39800395e-02]
+ [4.21252431e-02 5.90850973e-02 9.92320183e-02 ... 5.28305286e-02
+  9.67896402e-02 2.46114490e-01]
+ [2.88864565e-02 7.01632395e-02 2.25264316e-01 ... 4.28948342e-02
+  1.00329634e-01 1.81820886e-01]
+ ...
+ [4.64235664e-04 1.16204981e-04 7.15052654e-07 ... 1.67025877e-06
+  1.88714717e-06 5.73825042e-05]
+ [4.72647097e-04 1.18459376e-04 1.03365165e-06 ... 1.19729999e-06
+  1.38244036e-06 5.43062001e-05]
+ [5.02765869e-04 1.50776012e-04 2.98220579e-05 ... 3.04794461e-05
+  2.97990116e-05 7.18694538e-05]]</t>
+        </is>
+      </c>
+      <c r="D315" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>0.1397702885108582</v>
+      </c>
+      <c r="B316" t="n">
+        <v>8648</v>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>[[1.01522071e-01 1.03465987e-01 9.70770469e-02 ... 5.67789133e-02
+  7.56982192e-02 4.88419049e-02]
+ [9.45870460e-02 1.51792346e-01 1.47664519e-01 ... 1.45516145e-01
+  5.73772401e-02 5.40662651e-02]
+ [1.21265242e-01 1.27110954e-01 1.88603199e-01 ... 1.64330388e-01
+  3.14658066e-01 2.66399431e-01]
+ ...
+ [3.71058629e-04 9.30035619e-05 6.14460183e-07 ... 1.38844448e-06
+  1.35653413e-06 1.56571441e-06]
+ [3.52331422e-04 8.80797660e-05 3.45647646e-07 ... 1.33534644e-06
+  1.88441437e-06 1.73530731e-06]
+ [3.75128991e-04 1.18125150e-04 3.00904028e-05 ... 3.37888820e-05
+  3.65973627e-05 2.79388173e-05]]</t>
+        </is>
+      </c>
+      <c r="D316" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>0.1365647802482522</v>
+      </c>
+      <c r="B317" t="n">
+        <v>8456</v>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>[[5.24796697e-02 1.40129950e-01 6.28054177e-02 ... 2.28115829e-02
+  4.35463283e-02 8.46532496e-02]
+ [2.79189416e-02 6.73430430e-02 4.30729456e-02 ... 7.16092888e-02
+  1.36904965e-01 1.33589737e-01]
+ [5.47903582e-03 1.50241318e-02 4.70115182e-02 ... 2.56334329e-01
+  1.14707959e-01 1.54389791e-01]
+ ...
+ [1.08249723e-04 2.78034556e-05 1.08526505e-06 ... 3.63598688e-07
+  6.95782026e-07 4.11604278e-06]
+ [1.06882217e-04 2.72374576e-05 1.14307920e-06 ... 4.86561546e-07
+  7.18417190e-07 4.45491242e-06]
+ [1.38797198e-04 6.13096351e-05 3.32531637e-05 ... 3.05908905e-05
+  3.11406661e-05 3.30448871e-05]]</t>
+        </is>
+      </c>
+      <c r="D317" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>0.1288079971439174</v>
+      </c>
+      <c r="B318" t="n">
+        <v>8292</v>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>[[3.48709709e-02 3.41352075e-02 2.82285484e-01 ... 5.81888441e-02
+  7.09545350e-03 4.60426375e-03]
+ [2.46511364e-02 7.61454317e-02 3.18968017e-01 ... 1.55079266e-01
+  5.20828043e-02 8.59750046e-03]
+ [2.06934736e-02 6.63808222e-02 1.74559686e-01 ... 1.67050498e-01
+  1.67896210e-01 5.53991288e-02]
+ ...
+ [1.15546833e-06 1.79122016e-06 2.07516876e-06 ... 2.51091031e-06
+  1.75877300e-06 1.94081630e-05]
+ [4.65742548e-07 9.67963409e-07 1.16398907e-06 ... 1.80783685e-06
+  1.71949031e-06 1.78641223e-05]
+ [1.44808483e-05 2.92625975e-05 3.07772390e-05 ... 3.27216458e-05
+  3.37681087e-05 4.21520853e-05]]</t>
+        </is>
+      </c>
+      <c r="D318" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>0.1170305710603939</v>
+      </c>
+      <c r="B319" t="n">
+        <v>8153</v>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>[[4.54628800e-03 3.95640988e-02 1.04738820e-01 ... 4.09133598e-02
+  5.14616405e-02 1.10611285e-01]
+ [1.48701740e-02 8.07619082e-02 1.44620620e-01 ... 1.73934623e-01
+  2.08207220e-01 6.67561700e-02]
+ [5.27318813e-02 1.43492298e-01 6.48051264e-02 ... 1.90302970e-01
+  1.81622353e-01 1.44898113e-01]
+ ...
+ [6.69318518e-06 2.54817472e-06 4.63788596e-07 ... 8.38799889e-07
+  1.07462587e-06 1.87150511e-05]
+ [6.93976511e-06 2.27991527e-06 4.57449938e-07 ... 7.32292576e-07
+  7.30844215e-07 1.83887197e-05]
+ [2.21874764e-05 3.17100642e-05 3.17376627e-05 ... 3.11489431e-05
+  3.03149852e-05 4.20687364e-05]]</t>
+        </is>
+      </c>
+      <c r="D319" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
         <v>0.06227369868558028</v>
       </c>
-      <c r="B225" t="n">
+      <c r="B320" t="n">
         <v>14626</v>
       </c>
-      <c r="C225" t="inlineStr">
+      <c r="C320" t="inlineStr">
         <is>
           <t>[[1.00512117e+02 2.05967564e+02 2.88234558e+01 ... 3.83914593e-05
   2.74050977e-05 4.93793699e-06]
@@ -6723,18 +9377,18 @@
   7.76293745e-10 7.45480184e-10]]</t>
         </is>
       </c>
-      <c r="D225" t="n">
+      <c r="D320" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" t="n">
+    <row r="321">
+      <c r="A321" t="n">
         <v>0.06381680399890766</v>
       </c>
-      <c r="B226" t="n">
+      <c r="B321" t="n">
         <v>1679</v>
       </c>
-      <c r="C226" t="inlineStr">
+      <c r="C321" t="inlineStr">
         <is>
           <t>[[6.62842025e-01 1.55906957e+00 1.12764124e+00 ... 4.09326559e-01
   1.23536850e+00 1.45669823e+00]
@@ -6751,18 +9405,18 @@
   8.83194204e-07 5.20223560e-06]]</t>
         </is>
       </c>
-      <c r="D226" t="n">
+      <c r="D321" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" t="n">
+    <row r="322">
+      <c r="A322" t="n">
         <v>0.04825755619918581</v>
       </c>
-      <c r="B227" t="n">
+      <c r="B322" t="n">
         <v>1813</v>
       </c>
-      <c r="C227" t="inlineStr">
+      <c r="C322" t="inlineStr">
         <is>
           <t>[[7.77803596e-01 2.59087136e+00 3.09301409e+00 ... 6.72154302e-02
   2.06221532e-01 4.60299794e-01]
@@ -6779,18 +9433,18 @@
   2.43126274e-07 2.09041071e-07]]</t>
         </is>
       </c>
-      <c r="D227" t="n">
+      <c r="D322" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" t="n">
+    <row r="323">
+      <c r="A323" t="n">
         <v>0.01561065744058889</v>
       </c>
-      <c r="B228" t="n">
+      <c r="B323" t="n">
         <v>1932</v>
       </c>
-      <c r="C228" t="inlineStr">
+      <c r="C323" t="inlineStr">
         <is>
           <t>[[4.77887075e-01 1.01808654e+00 9.76835631e-01 ... 1.25920505e-06
   2.26140325e-10 0.00000000e+00]
@@ -6807,18 +9461,18 @@
   2.30837444e-13 0.00000000e+00]]</t>
         </is>
       </c>
-      <c r="D228" t="n">
+      <c r="D323" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" t="n">
+    <row r="324">
+      <c r="A324" t="n">
         <v>0.1224762611258669</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B324" t="n">
         <v>2692</v>
       </c>
-      <c r="C229" t="inlineStr">
+      <c r="C324" t="inlineStr">
         <is>
           <t>[[3.93576711e-01 1.37422596e+00 1.91421535e+00 ... 2.27638914e-01
   1.10070863e-01 1.06329291e-01]
@@ -6835,18 +9489,18 @@
   2.02713011e-07 2.03853661e-05]]</t>
         </is>
       </c>
-      <c r="D229" t="n">
+      <c r="D324" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" t="n">
+    <row r="325">
+      <c r="A325" t="n">
         <v>0.114444510398524</v>
       </c>
-      <c r="B230" t="n">
+      <c r="B325" t="n">
         <v>2688</v>
       </c>
-      <c r="C230" t="inlineStr">
+      <c r="C325" t="inlineStr">
         <is>
           <t>[[3.06536650e-01 8.92731042e-01 3.31500177e-01 ... 4.62321893e-01
   1.64705161e-01 4.81795575e-01]
@@ -6863,18 +9517,18 @@
   6.74428259e-07 1.05787921e-05]]</t>
         </is>
       </c>
-      <c r="D230" t="n">
+      <c r="D325" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" t="n">
+    <row r="326">
+      <c r="A326" t="n">
         <v>0.1050360746520724</v>
       </c>
-      <c r="B231" t="n">
+      <c r="B326" t="n">
         <v>2511</v>
       </c>
-      <c r="C231" t="inlineStr">
+      <c r="C326" t="inlineStr">
         <is>
           <t>[[4.65538193e-01 3.89794976e+00 4.26169481e+00 ... 1.25833980e+00
   7.39231891e-01 6.90633975e-01]
@@ -6891,18 +9545,18 @@
   6.12423665e-07 1.15377280e-04]]</t>
         </is>
       </c>
-      <c r="D231" t="n">
+      <c r="D326" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" t="n">
+    <row r="327">
+      <c r="A327" t="n">
         <v>0.1002061005713761</v>
       </c>
-      <c r="B232" t="n">
+      <c r="B327" t="n">
         <v>2540</v>
       </c>
-      <c r="C232" t="inlineStr">
+      <c r="C327" t="inlineStr">
         <is>
           <t>[[1.07486069e-01 1.54478435e-01 7.08272989e-01 ... 2.96551708e-01
   4.62414720e-01 1.92069195e-01]
@@ -6919,18 +9573,18 @@
   7.90516615e-07 1.06907807e-05]]</t>
         </is>
       </c>
-      <c r="D232" t="n">
+      <c r="D327" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" t="n">
+    <row r="328">
+      <c r="A328" t="n">
         <v>0.07927951233258367</v>
       </c>
-      <c r="B233" t="n">
+      <c r="B328" t="n">
         <v>2099</v>
       </c>
-      <c r="C233" t="inlineStr">
+      <c r="C328" t="inlineStr">
         <is>
           <t>[[3.39205709e+00 7.23355993e+00 2.88042846e+00 ... 2.69901442e-01
   7.90886581e-02 7.56616519e-02]
@@ -6947,18 +9601,18 @@
   8.44783665e-09 4.10615485e-08]]</t>
         </is>
       </c>
-      <c r="D233" t="n">
+      <c r="D328" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" t="n">
+    <row r="329">
+      <c r="A329" t="n">
         <v>0.1215338999866095</v>
       </c>
-      <c r="B234" t="n">
+      <c r="B329" t="n">
         <v>2507</v>
       </c>
-      <c r="C234" t="inlineStr">
+      <c r="C329" t="inlineStr">
         <is>
           <t>[[8.24372851e-03 6.19173075e-02 2.80817305e-01 ... 1.51085384e+00
   6.76417212e-01 4.97124064e-02]
@@ -6975,18 +9629,18 @@
   1.68746901e-06 1.12749676e-05]]</t>
         </is>
       </c>
-      <c r="D234" t="n">
+      <c r="D329" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" t="n">
+    <row r="330">
+      <c r="A330" t="n">
         <v>0.1413124993265649</v>
       </c>
-      <c r="B235" t="n">
+      <c r="B330" t="n">
         <v>2841</v>
       </c>
-      <c r="C235" t="inlineStr">
+      <c r="C330" t="inlineStr">
         <is>
           <t>[[2.35167334e-01 2.37589125e+00 6.07839799e+00 ... 1.06165976e+01
   4.40515821e+00 1.13176425e+01]
@@ -7003,18 +9657,18 @@
   2.84898238e-06 3.19414569e-04]]</t>
         </is>
       </c>
-      <c r="D235" t="n">
+      <c r="D330" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" t="n">
+    <row r="331">
+      <c r="A331" t="n">
         <v>0.06045458065991642</v>
       </c>
-      <c r="B236" t="n">
+      <c r="B331" t="n">
         <v>2206</v>
       </c>
-      <c r="C236" t="inlineStr">
+      <c r="C331" t="inlineStr">
         <is>
           <t>[[2.38535592e+00 4.77265360e+00 2.72404453e+00 ... 3.84853017e+00
   1.58397994e+00 3.80368411e-01]
@@ -7031,18 +9685,18 @@
   1.71962548e-07 3.04831685e-05]]</t>
         </is>
       </c>
-      <c r="D236" t="n">
+      <c r="D331" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" t="n">
+    <row r="332">
+      <c r="A332" t="n">
         <v>0.06585133404847129</v>
       </c>
-      <c r="B237" t="n">
+      <c r="B332" t="n">
         <v>2262</v>
       </c>
-      <c r="C237" t="inlineStr">
+      <c r="C332" t="inlineStr">
         <is>
           <t>[[2.63418573e+00 3.45194354e+00 3.21905037e+00 ... 7.24029886e+00
   8.75086141e+00 3.53735363e+00]
@@ -7059,18 +9713,18 @@
   2.13494938e-07 1.42033705e-05]]</t>
         </is>
       </c>
-      <c r="D237" t="n">
+      <c r="D332" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" t="n">
+    <row r="333">
+      <c r="A333" t="n">
         <v>0.0635141298297157</v>
       </c>
-      <c r="B238" t="n">
+      <c r="B333" t="n">
         <v>2011</v>
       </c>
-      <c r="C238" t="inlineStr">
+      <c r="C333" t="inlineStr">
         <is>
           <t>[[6.77540003e-02 3.29661434e-01 2.07332609e+00 ... 1.14836857e+00
   7.35324118e-01 1.21180616e+00]
@@ -7087,18 +9741,18 @@
   1.42324486e-08 2.00540053e-07]]</t>
         </is>
       </c>
-      <c r="D238" t="n">
+      <c r="D333" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" t="n">
+    <row r="334">
+      <c r="A334" t="n">
         <v>0.01240958552387889</v>
       </c>
-      <c r="B239" t="n">
+      <c r="B334" t="n">
         <v>11094</v>
       </c>
-      <c r="C239" t="inlineStr">
+      <c r="C334" t="inlineStr">
         <is>
           <t>[[2.16197470e-13 1.03119000e-09 1.56593188e-07 ... 7.38014642e-07
   4.86190822e-07 3.69650615e-05]
@@ -7115,18 +9769,18 @@
   2.98575333e-07 8.50766193e-07]]</t>
         </is>
       </c>
-      <c r="D239" t="n">
+      <c r="D334" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="240">
-      <c r="A240" t="n">
+    <row r="335">
+      <c r="A335" t="n">
         <v>0.01645602794530927</v>
       </c>
-      <c r="B240" t="n">
+      <c r="B335" t="n">
         <v>6142</v>
       </c>
-      <c r="C240" t="inlineStr">
+      <c r="C335" t="inlineStr">
         <is>
           <t>[[7.18224865e-08 3.85254817e-07 1.01875752e-06 ... 0.00000000e+00
   0.00000000e+00 0.00000000e+00]
@@ -7143,18 +9797,18 @@
   0.00000000e+00 0.00000000e+00]]</t>
         </is>
       </c>
-      <c r="D240" t="n">
+      <c r="D335" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" t="n">
+    <row r="336">
+      <c r="A336" t="n">
         <v>0.02206416719756215</v>
       </c>
-      <c r="B241" t="n">
+      <c r="B336" t="n">
         <v>12280</v>
       </c>
-      <c r="C241" t="inlineStr">
+      <c r="C336" t="inlineStr">
         <is>
           <t>[[1.84367702e-05 6.81234588e-06 3.25384090e-06 ... 9.07435737e-07
   3.31258395e-06 8.74893536e-06]
@@ -7171,18 +9825,18 @@
   3.91427439e-07 4.87798229e-06]]</t>
         </is>
       </c>
-      <c r="D241" t="n">
+      <c r="D336" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="242">
-      <c r="A242" t="n">
+    <row r="337">
+      <c r="A337" t="n">
         <v>0.02224756079612356</v>
       </c>
-      <c r="B242" t="n">
+      <c r="B337" t="n">
         <v>12296</v>
       </c>
-      <c r="C242" t="inlineStr">
+      <c r="C337" t="inlineStr">
         <is>
           <t>[[4.26912387e-05 1.09344683e-05 1.01478658e-06 ... 3.11445351e-06
   1.79215026e-06 5.26084441e-05]
@@ -7199,18 +9853,18 @@
   4.95342056e-07 4.29663745e-07]]</t>
         </is>
       </c>
-      <c r="D242" t="n">
+      <c r="D337" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="243">
-      <c r="A243" t="n">
+    <row r="338">
+      <c r="A338" t="n">
         <v>0.01162366650600274</v>
       </c>
-      <c r="B243" t="n">
+      <c r="B338" t="n">
         <v>12668</v>
       </c>
-      <c r="C243" t="inlineStr">
+      <c r="C338" t="inlineStr">
         <is>
           <t>[[2.15729488e-05 4.38747482e-06 1.03325750e-06 ... 4.24054690e-07
   6.05586923e-07 3.21555222e-06]
@@ -7227,18 +9881,18 @@
   2.05537693e-08 4.69960322e-08]]</t>
         </is>
       </c>
-      <c r="D243" t="n">
+      <c r="D338" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" t="n">
+    <row r="339">
+      <c r="A339" t="n">
         <v>0.01131653509214857</v>
       </c>
-      <c r="B244" t="n">
+      <c r="B339" t="n">
         <v>2424</v>
       </c>
-      <c r="C244" t="inlineStr">
+      <c r="C339" t="inlineStr">
         <is>
           <t>[[7.56387552e-06 1.29842856e-04 1.54151238e-04 ... 0.00000000e+00
   0.00000000e+00 0.00000000e+00]
@@ -7255,18 +9909,18 @@
   0.00000000e+00 0.00000000e+00]]</t>
         </is>
       </c>
-      <c r="D244" t="n">
+      <c r="D339" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" t="n">
+    <row r="340">
+      <c r="A340" t="n">
         <v>0.04118825230129601</v>
       </c>
-      <c r="B245" t="n">
+      <c r="B340" t="n">
         <v>4957</v>
       </c>
-      <c r="C245" t="inlineStr">
+      <c r="C340" t="inlineStr">
         <is>
           <t>[[9.97554364e-03 6.49274089e-03 7.96964038e-03 ... 0.00000000e+00
   0.00000000e+00 0.00000000e+00]
@@ -7283,18 +9937,18 @@
   0.00000000e+00 0.00000000e+00]]</t>
         </is>
       </c>
-      <c r="D245" t="n">
+      <c r="D340" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" t="n">
+    <row r="341">
+      <c r="A341" t="n">
         <v>0.04037877787572262</v>
       </c>
-      <c r="B246" t="n">
+      <c r="B341" t="n">
         <v>10579</v>
       </c>
-      <c r="C246" t="inlineStr">
+      <c r="C341" t="inlineStr">
         <is>
           <t>[[6.74903104e-04 6.81530333e-04 1.80414287e-03 ... 8.76093603e-03
   3.34350768e-03 4.10689467e-04]
@@ -7311,18 +9965,18 @@
   8.76094932e-07 7.68872561e-06]]</t>
         </is>
       </c>
-      <c r="D246" t="n">
+      <c r="D341" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" t="n">
+    <row r="342">
+      <c r="A342" t="n">
         <v>0.035212652006442</v>
       </c>
-      <c r="B247" t="n">
+      <c r="B342" t="n">
         <v>10491</v>
       </c>
-      <c r="C247" t="inlineStr">
+      <c r="C342" t="inlineStr">
         <is>
           <t>[[4.77709470e-04 1.54628383e-03 2.19155899e-03 ... 1.71981326e-04
   1.26406602e-03 7.01948166e-04]
@@ -7339,18 +9993,18 @@
   1.33121405e-06 3.61233255e-06]]</t>
         </is>
       </c>
-      <c r="D247" t="n">
+      <c r="D342" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" t="n">
+    <row r="343">
+      <c r="A343" t="n">
         <v>0.002305392875528424</v>
       </c>
-      <c r="B248" t="n">
+      <c r="B343" t="n">
         <v>11316</v>
       </c>
-      <c r="C248" t="inlineStr">
+      <c r="C343" t="inlineStr">
         <is>
           <t>[[1.44537929e-08 1.65359648e-05 7.10405105e-04 ... 1.85893492e-08
   3.44497264e-08 9.71769902e-08]
@@ -7367,18 +10021,18 @@
   1.23575155e-05 1.27162467e-05]]</t>
         </is>
       </c>
-      <c r="D248" t="n">
+      <c r="D343" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" t="n">
+    <row r="344">
+      <c r="A344" t="n">
         <v>0.001338118554125972</v>
       </c>
-      <c r="B249" t="n">
+      <c r="B344" t="n">
         <v>5835</v>
       </c>
-      <c r="C249" t="inlineStr">
+      <c r="C344" t="inlineStr">
         <is>
           <t>[[5.55172579e-06 1.42990773e-06 1.20983062e-08 ... 0.00000000e+00
   0.00000000e+00 0.00000000e+00]
@@ -7395,18 +10049,18 @@
   0.00000000e+00 0.00000000e+00]]</t>
         </is>
       </c>
-      <c r="D249" t="n">
+      <c r="D344" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="250">
-      <c r="A250" t="n">
+    <row r="345">
+      <c r="A345" t="n">
         <v>0.001320700834894379</v>
       </c>
-      <c r="B250" t="n">
+      <c r="B345" t="n">
         <v>6058</v>
       </c>
-      <c r="C250" t="inlineStr">
+      <c r="C345" t="inlineStr">
         <is>
           <t>[[7.51001582e-09 3.73865448e-08 3.06590302e-08 ... 0.00000000e+00
   0.00000000e+00 0.00000000e+00]
@@ -7423,18 +10077,18 @@
   0.00000000e+00 0.00000000e+00]]</t>
         </is>
       </c>
-      <c r="D250" t="n">
+      <c r="D345" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" t="n">
+    <row r="346">
+      <c r="A346" t="n">
         <v>0.001635928533597949</v>
       </c>
-      <c r="B251" t="n">
+      <c r="B346" t="n">
         <v>13460</v>
       </c>
-      <c r="C251" t="inlineStr">
+      <c r="C346" t="inlineStr">
         <is>
           <t>[[1.06159929e-07 5.45848421e-08 2.42561739e-08 ... 6.28258533e-08
   4.62598417e-08 5.02257159e-08]
@@ -7451,18 +10105,18 @@
   1.50844480e-05 1.02772443e-05]]</t>
         </is>
       </c>
-      <c r="D251" t="n">
+      <c r="D346" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" t="n">
+    <row r="347">
+      <c r="A347" t="n">
         <v>0.002509681391823386</v>
       </c>
-      <c r="B252" t="n">
+      <c r="B347" t="n">
         <v>11523</v>
       </c>
-      <c r="C252" t="inlineStr">
+      <c r="C347" t="inlineStr">
         <is>
           <t>[[2.14050534e-07 5.52618738e-08 1.24990080e-08 ... 4.30051432e-08
   2.69124265e-08 1.62008725e-06]
@@ -7479,18 +10133,18 @@
   1.28028963e-05 1.51963496e-05]]</t>
         </is>
       </c>
-      <c r="D252" t="n">
+      <c r="D347" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="253">
-      <c r="A253" t="n">
+    <row r="348">
+      <c r="A348" t="n">
         <v>0.001987610000399442</v>
       </c>
-      <c r="B253" t="n">
+      <c r="B348" t="n">
         <v>12677</v>
       </c>
-      <c r="C253" t="inlineStr">
+      <c r="C348" t="inlineStr">
         <is>
           <t>[[1.77277998e-06 5.59038214e-07 2.08181637e-08 ... 8.60342391e-09
   3.48173825e-08 1.93522907e-07]
@@ -7507,18 +10161,18 @@
   1.16380769e-05 6.97271086e-06]]</t>
         </is>
       </c>
-      <c r="D253" t="n">
+      <c r="D348" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="254">
-      <c r="A254" t="n">
+    <row r="349">
+      <c r="A349" t="n">
         <v>0.002692110780771189</v>
       </c>
-      <c r="B254" t="n">
+      <c r="B349" t="n">
         <v>10222</v>
       </c>
-      <c r="C254" t="inlineStr">
+      <c r="C349" t="inlineStr">
         <is>
           <t>[[2.40367210e-06 6.92922994e-07 1.45010100e-08 ... 3.22147524e-09
   2.19692957e-08 8.86686581e-06]
@@ -7535,18 +10189,18 @@
   1.37348666e-05 9.46699166e-06]]</t>
         </is>
       </c>
-      <c r="D254" t="n">
+      <c r="D349" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="255">
-      <c r="A255" t="n">
+    <row r="350">
+      <c r="A350" t="n">
         <v>0.001515761238235994</v>
       </c>
-      <c r="B255" t="n">
+      <c r="B350" t="n">
         <v>6478</v>
       </c>
-      <c r="C255" t="inlineStr">
+      <c r="C350" t="inlineStr">
         <is>
           <t>[[2.42763523e-06 5.37901240e-07 2.64242093e-08 ... 0.00000000e+00
   0.00000000e+00 0.00000000e+00]
@@ -7563,18 +10217,18 @@
   0.00000000e+00 0.00000000e+00]]</t>
         </is>
       </c>
-      <c r="D255" t="n">
+      <c r="D350" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="256">
-      <c r="A256" t="n">
+    <row r="351">
+      <c r="A351" t="n">
         <v>0.001007254092828813</v>
       </c>
-      <c r="B256" t="n">
+      <c r="B351" t="n">
         <v>7261</v>
       </c>
-      <c r="C256" t="inlineStr">
+      <c r="C351" t="inlineStr">
         <is>
           <t>[[2.22891727e-06 4.51246709e-07 1.33372809e-08 ... 0.00000000e+00
   0.00000000e+00 0.00000000e+00]
@@ -7591,18 +10245,18 @@
   0.00000000e+00 0.00000000e+00]]</t>
         </is>
       </c>
-      <c r="D256" t="n">
+      <c r="D351" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="257">
-      <c r="A257" t="n">
+    <row r="352">
+      <c r="A352" t="n">
         <v>0.0006235013076570231</v>
       </c>
-      <c r="B257" t="n">
+      <c r="B352" t="n">
         <v>2744</v>
       </c>
-      <c r="C257" t="inlineStr">
+      <c r="C352" t="inlineStr">
         <is>
           <t>[[7.14569297e-08 1.99154471e-08 1.46285228e-08 ... 0.00000000e+00
   0.00000000e+00 0.00000000e+00]
@@ -7619,18 +10273,18 @@
   0.00000000e+00 0.00000000e+00]]</t>
         </is>
       </c>
-      <c r="D257" t="n">
+      <c r="D352" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="258">
-      <c r="A258" t="n">
+    <row r="353">
+      <c r="A353" t="n">
         <v>0.03130550310015678</v>
       </c>
-      <c r="B258" t="n">
+      <c r="B353" t="n">
         <v>2900</v>
       </c>
-      <c r="C258" t="inlineStr">
+      <c r="C353" t="inlineStr">
         <is>
           <t>[[1.4731258e-03 1.2535942e-03 1.0579556e-03 ... 1.6951119e-03
   1.3165593e-03 1.1178381e-02]
@@ -7647,18 +10301,18 @@
   1.1667683e-08 3.7950110e-06]]</t>
         </is>
       </c>
-      <c r="D258" t="n">
+      <c r="D353" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="259">
-      <c r="A259" t="n">
+    <row r="354">
+      <c r="A354" t="n">
         <v>0.06426163762807846</v>
       </c>
-      <c r="B259" t="n">
+      <c r="B354" t="n">
         <v>2574</v>
       </c>
-      <c r="C259" t="inlineStr">
+      <c r="C354" t="inlineStr">
         <is>
           <t>[[1.8275484e-02 1.2651309e-02 5.0656991e-03 ... 0.0000000e+00
   0.0000000e+00 0.0000000e+00]
@@ -7675,18 +10329,18 @@
   0.0000000e+00 0.0000000e+00]]</t>
         </is>
       </c>
-      <c r="D259" t="n">
+      <c r="D354" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="260">
-      <c r="A260" t="n">
+    <row r="355">
+      <c r="A355" t="n">
         <v>0.003341045058200385</v>
       </c>
-      <c r="B260" t="n">
+      <c r="B355" t="n">
         <v>1951</v>
       </c>
-      <c r="C260" t="inlineStr">
+      <c r="C355" t="inlineStr">
         <is>
           <t>[[1.32074694e-02 9.76316717e-03 4.98500744e-03 ... 0.00000000e+00
   0.00000000e+00 0.00000000e+00]
@@ -7703,18 +10357,18 @@
   0.00000000e+00 0.00000000e+00]]</t>
         </is>
       </c>
-      <c r="D260" t="n">
+      <c r="D355" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="261">
-      <c r="A261" t="n">
+    <row r="356">
+      <c r="A356" t="n">
         <v>0.004976827994747378</v>
       </c>
-      <c r="B261" t="n">
+      <c r="B356" t="n">
         <v>4895</v>
       </c>
-      <c r="C261" t="inlineStr">
+      <c r="C356" t="inlineStr">
         <is>
           <t>[[7.66579326e-03 1.47929221e-02 7.25499114e-03 ... 1.83189442e-02
   5.96701734e-03 1.93425146e-03]
@@ -7731,18 +10385,18 @@
   5.39816519e-08 2.25975735e-07]]</t>
         </is>
       </c>
-      <c r="D261" t="n">
+      <c r="D356" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="262">
-      <c r="A262" t="n">
+    <row r="357">
+      <c r="A357" t="n">
         <v>0.04830231948352669</v>
       </c>
-      <c r="B262" t="n">
+      <c r="B357" t="n">
         <v>6172</v>
       </c>
-      <c r="C262" t="inlineStr">
+      <c r="C357" t="inlineStr">
         <is>
           <t>[[9.45015542e-04 1.25365022e-03 6.05361823e-04 ... 2.96217083e-03
   7.73830384e-04 3.88633650e-04]
@@ -7759,18 +10413,18 @@
   2.55639680e-08 1.23402896e-07]]</t>
         </is>
       </c>
-      <c r="D262" t="n">
+      <c r="D357" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="263">
-      <c r="A263" t="n">
+    <row r="358">
+      <c r="A358" t="n">
         <v>0.003301834720511124</v>
       </c>
-      <c r="B263" t="n">
+      <c r="B358" t="n">
         <v>2571</v>
       </c>
-      <c r="C263" t="inlineStr">
+      <c r="C358" t="inlineStr">
         <is>
           <t>[[3.51743680e-03 4.33456523e-03 2.35201018e-03 ... 0.00000000e+00
   0.00000000e+00 0.00000000e+00]
@@ -7787,18 +10441,18 @@
   0.00000000e+00 0.00000000e+00]]</t>
         </is>
       </c>
-      <c r="D263" t="n">
+      <c r="D358" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="264">
-      <c r="A264" t="n">
+    <row r="359">
+      <c r="A359" t="n">
         <v>0.002227931546317397</v>
       </c>
-      <c r="B264" t="n">
+      <c r="B359" t="n">
         <v>2700</v>
       </c>
-      <c r="C264" t="inlineStr">
+      <c r="C359" t="inlineStr">
         <is>
           <t>[[1.50258258e-03 5.82915590e-03 2.74643176e-03 ... 0.00000000e+00
   0.00000000e+00 0.00000000e+00]
@@ -7815,18 +10469,18 @@
   0.00000000e+00 0.00000000e+00]]</t>
         </is>
       </c>
-      <c r="D264" t="n">
+      <c r="D359" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="265">
-      <c r="A265" t="n">
+    <row r="360">
+      <c r="A360" t="n">
         <v>0.003861557397985579</v>
       </c>
-      <c r="B265" t="n">
+      <c r="B360" t="n">
         <v>2834</v>
       </c>
-      <c r="C265" t="inlineStr">
+      <c r="C360" t="inlineStr">
         <is>
           <t>[[2.12417503e-03 2.17857306e-03 5.80718429e-04 ... 0.00000000e+00
   0.00000000e+00 0.00000000e+00]
@@ -7843,18 +10497,18 @@
   0.00000000e+00 0.00000000e+00]]</t>
         </is>
       </c>
-      <c r="D265" t="n">
+      <c r="D360" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="266">
-      <c r="A266" t="n">
+    <row r="361">
+      <c r="A361" t="n">
         <v>0.0005661029712534055</v>
       </c>
-      <c r="B266" t="n">
+      <c r="B361" t="n">
         <v>140</v>
       </c>
-      <c r="C266" t="inlineStr">
+      <c r="C361" t="inlineStr">
         <is>
           <t>[[3.59237764e-03 8.57597512e-03 1.65758028e-03 ... 0.00000000e+00
   0.00000000e+00 0.00000000e+00]
@@ -7871,18 +10525,18 @@
   0.00000000e+00 0.00000000e+00]]</t>
         </is>
       </c>
-      <c r="D266" t="n">
+      <c r="D361" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="267">
-      <c r="A267" t="n">
+    <row r="362">
+      <c r="A362" t="n">
         <v>0.0005823323052671964</v>
       </c>
-      <c r="B267" t="n">
+      <c r="B362" t="n">
         <v>2444</v>
       </c>
-      <c r="C267" t="inlineStr">
+      <c r="C362" t="inlineStr">
         <is>
           <t>[[0. 0. 0. ... 0. 0. 0.]
  [0. 0. 0. ... 0. 0. 0.]
@@ -7893,18 +10547,18 @@
  [0. 0. 0. ... 0. 0. 0.]]</t>
         </is>
       </c>
-      <c r="D267" t="n">
+      <c r="D362" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="268">
-      <c r="A268" t="n">
+    <row r="363">
+      <c r="A363" t="n">
         <v>0.002726396846541281</v>
       </c>
-      <c r="B268" t="n">
+      <c r="B363" t="n">
         <v>6087</v>
       </c>
-      <c r="C268" t="inlineStr">
+      <c r="C363" t="inlineStr">
         <is>
           <t>[[1.97497685e-04 1.47986545e-04 1.05592752e-04 ... 1.41485980e-04
   4.26053490e-05 1.01612509e-04]
@@ -7921,18 +10575,18 @@
   8.51267204e-10 2.48393248e-08]]</t>
         </is>
       </c>
-      <c r="D268" t="n">
+      <c r="D363" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="269">
-      <c r="A269" t="n">
+    <row r="364">
+      <c r="A364" t="n">
         <v>0.003167692727291136</v>
       </c>
-      <c r="B269" t="n">
+      <c r="B364" t="n">
         <v>6315</v>
       </c>
-      <c r="C269" t="inlineStr">
+      <c r="C364" t="inlineStr">
         <is>
           <t>[[2.68386111e-04 3.34553815e-04 3.56953778e-04 ... 1.21549835e-04
   1.65610217e-04 6.35335932e-05]
@@ -7949,18 +10603,18 @@
   1.22235354e-09 9.93468995e-08]]</t>
         </is>
       </c>
-      <c r="D269" t="n">
+      <c r="D364" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="270">
-      <c r="A270" t="n">
+    <row r="365">
+      <c r="A365" t="n">
         <v>0.002679807805869897</v>
       </c>
-      <c r="B270" t="n">
+      <c r="B365" t="n">
         <v>6043</v>
       </c>
-      <c r="C270" t="inlineStr">
+      <c r="C365" t="inlineStr">
         <is>
           <t>[[2.12880683e-04 1.88874174e-04 1.62933004e-04 ... 1.50038765e-04
   3.17757010e-05 1.70928943e-04]
@@ -7977,18 +10631,18 @@
   1.59769443e-09 2.68130051e-08]]</t>
         </is>
       </c>
-      <c r="D270" t="n">
+      <c r="D365" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="271">
-      <c r="A271" t="n">
+    <row r="366">
+      <c r="A366" t="n">
         <v>0.001987124166632106</v>
       </c>
-      <c r="B271" t="n">
+      <c r="B366" t="n">
         <v>3453</v>
       </c>
-      <c r="C271" t="inlineStr">
+      <c r="C366" t="inlineStr">
         <is>
           <t>[[1.05072041e-04 1.57958951e-04 4.15246547e-05 ... 0.00000000e+00
   0.00000000e+00 0.00000000e+00]
@@ -8005,18 +10659,18 @@
   0.00000000e+00 0.00000000e+00]]</t>
         </is>
       </c>
-      <c r="D271" t="n">
+      <c r="D366" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="272">
-      <c r="A272" t="n">
+    <row r="367">
+      <c r="A367" t="n">
         <v>0.002001117901453201</v>
       </c>
-      <c r="B272" t="n">
+      <c r="B367" t="n">
         <v>6094</v>
       </c>
-      <c r="C272" t="inlineStr">
+      <c r="C367" t="inlineStr">
         <is>
           <t>[[8.17644389e-05 1.05245012e-04 2.89378663e-04 ... 1.34380969e-08
   1.03098302e-09 5.64336131e-10]
@@ -8033,18 +10687,18 @@
   5.20499671e-14 2.49642540e-13]]</t>
         </is>
       </c>
-      <c r="D272" t="n">
+      <c r="D367" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="273">
-      <c r="A273" t="n">
+    <row r="368">
+      <c r="A368" t="n">
         <v>0.001646189900952157</v>
       </c>
-      <c r="B273" t="n">
+      <c r="B368" t="n">
         <v>4370</v>
       </c>
-      <c r="C273" t="inlineStr">
+      <c r="C368" t="inlineStr">
         <is>
           <t>[[0.00000000e+00 0.00000000e+00 6.16023316e-21 ... 0.00000000e+00
   0.00000000e+00 0.00000000e+00]
@@ -8061,18 +10715,18 @@
   0.00000000e+00 0.00000000e+00]]</t>
         </is>
       </c>
-      <c r="D273" t="n">
+      <c r="D368" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="274">
-      <c r="A274" t="n">
+    <row r="369">
+      <c r="A369" t="n">
         <v>0.009240768745815496</v>
       </c>
-      <c r="B274" t="n">
+      <c r="B369" t="n">
         <v>7748</v>
       </c>
-      <c r="C274" t="inlineStr">
+      <c r="C369" t="inlineStr">
         <is>
           <t>[[5.67765554e-04 2.17334056e-04 7.28751978e-05 ... 1.53265519e-05
   1.79223600e-05 3.79912826e-04]
@@ -8089,18 +10743,18 @@
   2.86751060e-08 5.72821750e-08]]</t>
         </is>
       </c>
-      <c r="D274" t="n">
+      <c r="D369" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="275">
-      <c r="A275" t="n">
+    <row r="370">
+      <c r="A370" t="n">
         <v>0.005195909810930491</v>
       </c>
-      <c r="B275" t="n">
+      <c r="B370" t="n">
         <v>4095</v>
       </c>
-      <c r="C275" t="inlineStr">
+      <c r="C370" t="inlineStr">
         <is>
           <t>[[1.13710659e-04 7.00222459e-05 3.27575153e-05 ... 0.00000000e+00
   0.00000000e+00 0.00000000e+00]
@@ -8117,18 +10771,18 @@
   0.00000000e+00 0.00000000e+00]]</t>
         </is>
       </c>
-      <c r="D275" t="n">
+      <c r="D370" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="276">
-      <c r="A276" t="n">
+    <row r="371">
+      <c r="A371" t="n">
         <v>0.006947664849956561</v>
       </c>
-      <c r="B276" t="n">
+      <c r="B371" t="n">
         <v>7471</v>
       </c>
-      <c r="C276" t="inlineStr">
+      <c r="C371" t="inlineStr">
         <is>
           <t>[[1.63179537e-04 7.47701957e-05 1.84516596e-06 ... 4.60658236e-05
   1.54508363e-05 1.08029002e-04]
@@ -8145,18 +10799,18 @@
   1.72538972e-08 1.76098383e-07]]</t>
         </is>
       </c>
-      <c r="D276" t="n">
+      <c r="D371" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="277">
-      <c r="A277" t="n">
+    <row r="372">
+      <c r="A372" t="n">
         <v>0.008264126377701669</v>
       </c>
-      <c r="B277" t="n">
+      <c r="B372" t="n">
         <v>7903</v>
       </c>
-      <c r="C277" t="inlineStr">
+      <c r="C372" t="inlineStr">
         <is>
           <t>[[9.49357502e-05 8.87309173e-05 4.82749072e-05 ... 7.01028674e-05
   5.81741747e-06 6.05766075e-05]
@@ -8173,18 +10827,18 @@
   2.72484379e-08 1.10743532e-07]]</t>
         </is>
       </c>
-      <c r="D277" t="n">
+      <c r="D372" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="278">
-      <c r="A278" t="n">
+    <row r="373">
+      <c r="A373" t="n">
         <v>0.006628760037270829</v>
       </c>
-      <c r="B278" t="n">
+      <c r="B373" t="n">
         <v>7322</v>
       </c>
-      <c r="C278" t="inlineStr">
+      <c r="C373" t="inlineStr">
         <is>
           <t>[[2.87872787e-04 2.12945990e-04 1.94261320e-04 ... 3.05604725e-05
   1.90830952e-06 1.59612385e-04]
@@ -8201,18 +10855,18 @@
   5.51761960e-08 6.68574722e-07]]</t>
         </is>
       </c>
-      <c r="D278" t="n">
+      <c r="D373" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="279">
-      <c r="A279" t="n">
+    <row r="374">
+      <c r="A374" t="n">
         <v>0.007501578187374617</v>
       </c>
-      <c r="B279" t="n">
+      <c r="B374" t="n">
         <v>6994</v>
       </c>
-      <c r="C279" t="inlineStr">
+      <c r="C374" t="inlineStr">
         <is>
           <t>[[8.47892862e-04 4.51371762e-04 3.12181344e-04 ... 4.85421694e-06
   1.05249532e-05 4.30563652e-05]
@@ -8229,18 +10883,18 @@
   5.00902186e-08 7.49165170e-08]]</t>
         </is>
       </c>
-      <c r="D279" t="n">
+      <c r="D374" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="280">
-      <c r="A280" t="n">
+    <row r="375">
+      <c r="A375" t="n">
         <v>0.01374116516415118</v>
       </c>
-      <c r="B280" t="n">
+      <c r="B375" t="n">
         <v>7117</v>
       </c>
-      <c r="C280" t="inlineStr">
+      <c r="C375" t="inlineStr">
         <is>
           <t>[[8.07409969e-07 1.20387346e-06 1.06875415e-06 ... 0.00000000e+00
   0.00000000e+00 0.00000000e+00]
@@ -8257,18 +10911,18 @@
   0.00000000e+00 0.00000000e+00]]</t>
         </is>
       </c>
-      <c r="D280" t="n">
+      <c r="D375" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="281">
-      <c r="A281" t="n">
+    <row r="376">
+      <c r="A376" t="n">
         <v>0.01516741410173306</v>
       </c>
-      <c r="B281" t="n">
+      <c r="B376" t="n">
         <v>7044</v>
       </c>
-      <c r="C281" t="inlineStr">
+      <c r="C376" t="inlineStr">
         <is>
           <t>[[6.16760921e-05 1.76782822e-05 1.07920133e-06 ... 0.00000000e+00
   0.00000000e+00 0.00000000e+00]
@@ -8285,18 +10939,18 @@
   0.00000000e+00 0.00000000e+00]]</t>
         </is>
       </c>
-      <c r="D281" t="n">
+      <c r="D376" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="282">
-      <c r="A282" t="n">
+    <row r="377">
+      <c r="A377" t="n">
         <v>0.01798516537237844</v>
       </c>
-      <c r="B282" t="n">
+      <c r="B377" t="n">
         <v>6877</v>
       </c>
-      <c r="C282" t="inlineStr">
+      <c r="C377" t="inlineStr">
         <is>
           <t>[[9.21367838e-05 1.93774710e-05 1.60906210e-06 ... 0.00000000e+00
   0.00000000e+00 0.00000000e+00]
@@ -8313,18 +10967,18 @@
   0.00000000e+00 0.00000000e+00]]</t>
         </is>
       </c>
-      <c r="D282" t="n">
+      <c r="D377" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="283">
-      <c r="A283" t="n">
+    <row r="378">
+      <c r="A378" t="n">
         <v>0.02693077745205054</v>
       </c>
-      <c r="B283" t="n">
+      <c r="B378" t="n">
         <v>13629</v>
       </c>
-      <c r="C283" t="inlineStr">
+      <c r="C378" t="inlineStr">
         <is>
           <t>[[2.27210489e-04 4.84836392e-05 1.18590125e-06 ... 3.57546838e-06
   8.80715450e-07 1.58808348e-04]
@@ -8341,18 +10995,18 @@
   1.17195479e-06 6.73064169e-06]]</t>
         </is>
       </c>
-      <c r="D283" t="n">
+      <c r="D378" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="284">
-      <c r="A284" t="n">
+    <row r="379">
+      <c r="A379" t="n">
         <v>0.01537961098476058</v>
       </c>
-      <c r="B284" t="n">
+      <c r="B379" t="n">
         <v>7044</v>
       </c>
-      <c r="C284" t="inlineStr">
+      <c r="C379" t="inlineStr">
         <is>
           <t>[[1.35980302e-04 3.02960474e-05 2.99921691e-06 ... 0.00000000e+00
   0.00000000e+00 0.00000000e+00]
@@ -8369,18 +11023,18 @@
   0.00000000e+00 0.00000000e+00]]</t>
         </is>
       </c>
-      <c r="D284" t="n">
+      <c r="D379" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="285">
-      <c r="A285" t="n">
-        <v>0</v>
-      </c>
-      <c r="B285" t="n">
-        <v>0</v>
-      </c>
-      <c r="C285" t="inlineStr">
+    <row r="380">
+      <c r="A380" t="n">
+        <v>0</v>
+      </c>
+      <c r="B380" t="n">
+        <v>0</v>
+      </c>
+      <c r="C380" t="inlineStr">
         <is>
           <t>[[0. 0. 0. ... 0. 0. 0.]
  [0. 0. 0. ... 0. 0. 0.]
@@ -8391,18 +11045,18 @@
  [0. 0. 0. ... 0. 0. 0.]]</t>
         </is>
       </c>
-      <c r="D285" t="n">
+      <c r="D380" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="286">
-      <c r="A286" t="n">
+    <row r="381">
+      <c r="A381" t="n">
         <v>0.03213871554680704</v>
       </c>
-      <c r="B286" t="n">
+      <c r="B381" t="n">
         <v>9769</v>
       </c>
-      <c r="C286" t="inlineStr">
+      <c r="C381" t="inlineStr">
         <is>
           <t>[[5.81041416e-03 6.31020824e-03 5.17546935e-03 ... 5.15800419e-03
   5.24826770e-03 6.66865288e-03]
@@ -8419,18 +11073,18 @@
   2.64261879e-08 8.73743194e-08]]</t>
         </is>
       </c>
-      <c r="D286" t="n">
+      <c r="D381" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="287">
-      <c r="A287" t="n">
+    <row r="382">
+      <c r="A382" t="n">
         <v>0.005610941610033769</v>
       </c>
-      <c r="B287" t="n">
+      <c r="B382" t="n">
         <v>4865</v>
       </c>
-      <c r="C287" t="inlineStr">
+      <c r="C382" t="inlineStr">
         <is>
           <t>[[3.91379948e-03 5.90226337e-03 5.19076896e-03 ... 0.00000000e+00
   0.00000000e+00 0.00000000e+00]
@@ -8447,18 +11101,18 @@
   0.00000000e+00 0.00000000e+00]]</t>
         </is>
       </c>
-      <c r="D287" t="n">
+      <c r="D382" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="288">
-      <c r="A288" t="n">
+    <row r="383">
+      <c r="A383" t="n">
         <v>0.02448037649873535</v>
       </c>
-      <c r="B288" t="n">
+      <c r="B383" t="n">
         <v>9914</v>
       </c>
-      <c r="C288" t="inlineStr">
+      <c r="C383" t="inlineStr">
         <is>
           <t>[[3.94512654e-03 6.29839780e-03 5.06006488e-03 ... 5.57669853e-03
   5.34341010e-03 6.53801509e-03]
@@ -8475,18 +11129,18 @@
   4.04894168e-08 1.28413168e-07]]</t>
         </is>
       </c>
-      <c r="D288" t="n">
+      <c r="D383" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="289">
-      <c r="A289" t="n">
+    <row r="384">
+      <c r="A384" t="n">
         <v>0.005737191791463358</v>
       </c>
-      <c r="B289" t="n">
+      <c r="B384" t="n">
         <v>8659</v>
       </c>
-      <c r="C289" t="inlineStr">
+      <c r="C384" t="inlineStr">
         <is>
           <t>[[3.99800659e-03 6.78514150e-03 5.47516245e-03 ... 5.33178679e-03
   5.64968296e-03 6.23912721e-03]
@@ -8503,18 +11157,18 @@
   4.07445527e-08 7.55320178e-08]]</t>
         </is>
       </c>
-      <c r="D289" t="n">
+      <c r="D384" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="290">
-      <c r="A290" t="n">
+    <row r="385">
+      <c r="A385" t="n">
         <v>0.005055952827724921</v>
       </c>
-      <c r="B290" t="n">
+      <c r="B385" t="n">
         <v>2731</v>
       </c>
-      <c r="C290" t="inlineStr">
+      <c r="C385" t="inlineStr">
         <is>
           <t>[[4.80302972e-03 5.55067604e-03 5.39918597e-03 ... 0.00000000e+00
   0.00000000e+00 0.00000000e+00]
@@ -8531,18 +11185,18 @@
   0.00000000e+00 0.00000000e+00]]</t>
         </is>
       </c>
-      <c r="D290" t="n">
+      <c r="D385" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="291">
-      <c r="A291" t="n">
-        <v>0</v>
-      </c>
-      <c r="B291" t="n">
-        <v>0</v>
-      </c>
-      <c r="C291" t="inlineStr">
+    <row r="386">
+      <c r="A386" t="n">
+        <v>0</v>
+      </c>
+      <c r="B386" t="n">
+        <v>0</v>
+      </c>
+      <c r="C386" t="inlineStr">
         <is>
           <t>[[0. 0. 0. ... 0. 0. 0.]
  [0. 0. 0. ... 0. 0. 0.]
@@ -8553,18 +11207,18 @@
  [0. 0. 0. ... 0. 0. 0.]]</t>
         </is>
       </c>
-      <c r="D291" t="n">
+      <c r="D386" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="292">
-      <c r="A292" t="n">
+    <row r="387">
+      <c r="A387" t="n">
         <v>0.0004826189542654902</v>
       </c>
-      <c r="B292" t="n">
+      <c r="B387" t="n">
         <v>3177</v>
       </c>
-      <c r="C292" t="inlineStr">
+      <c r="C387" t="inlineStr">
         <is>
           <t>[[7.7896716e-15 5.5885906e-14 1.6730554e-13 ... 0.0000000e+00
   0.0000000e+00 0.0000000e+00]
@@ -8581,18 +11235,18 @@
   0.0000000e+00 0.0000000e+00]]</t>
         </is>
       </c>
-      <c r="D292" t="n">
+      <c r="D387" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="293">
-      <c r="A293" t="n">
+    <row r="388">
+      <c r="A388" t="n">
         <v>0.004016181919723749</v>
       </c>
-      <c r="B293" t="n">
+      <c r="B388" t="n">
         <v>2545</v>
       </c>
-      <c r="C293" t="inlineStr">
+      <c r="C388" t="inlineStr">
         <is>
           <t>[[1.4063585e-04 3.1636817e-05 1.5445993e-06 ... 0.0000000e+00
   0.0000000e+00 0.0000000e+00]
@@ -8609,18 +11263,18 @@
   0.0000000e+00 0.0000000e+00]]</t>
         </is>
       </c>
-      <c r="D293" t="n">
+      <c r="D388" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="294">
-      <c r="A294" t="n">
+    <row r="389">
+      <c r="A389" t="n">
         <v>0.00791589543223381</v>
       </c>
-      <c r="B294" t="n">
+      <c r="B389" t="n">
         <v>2471</v>
       </c>
-      <c r="C294" t="inlineStr">
+      <c r="C389" t="inlineStr">
         <is>
           <t>[[1.1800047e-06 2.9850503e-06 1.6908672e-06 ... 0.0000000e+00
   0.0000000e+00 0.0000000e+00]
@@ -8637,18 +11291,18 @@
   0.0000000e+00 0.0000000e+00]]</t>
         </is>
       </c>
-      <c r="D294" t="n">
+      <c r="D389" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="295">
-      <c r="A295" t="n">
+    <row r="390">
+      <c r="A390" t="n">
         <v>0.006889539305120707</v>
       </c>
-      <c r="B295" t="n">
+      <c r="B390" t="n">
         <v>5535</v>
       </c>
-      <c r="C295" t="inlineStr">
+      <c r="C390" t="inlineStr">
         <is>
           <t>[[2.6822562e-04 7.4043586e-05 1.2498328e-06 ... 3.4750119e-07
   1.1629223e-06 4.4400389e-05]
@@ -8665,46 +11319,18 @@
   1.0781001e-09 3.5036865e-07]]</t>
         </is>
       </c>
-      <c r="D295" t="n">
+      <c r="D390" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="296">
-      <c r="A296" t="n">
-        <v>5.039644718904121e-05</v>
-      </c>
-      <c r="B296" t="n">
-        <v>2888</v>
-      </c>
-      <c r="C296" t="inlineStr">
-        <is>
-          <t>[[1.49794009e-05 1.82327420e-05 1.17912683e-06 ... 0.00000000e+00
-  0.00000000e+00 0.00000000e+00]
- [7.78661448e-06 1.23892760e-05 3.85447937e-06 ... 0.00000000e+00
-  0.00000000e+00 0.00000000e+00]
- [1.75078192e-06 2.04493278e-06 2.23472511e-06 ... 0.00000000e+00
-  0.00000000e+00 0.00000000e+00]
- ...
- [3.87536473e-10 7.80045729e-10 7.05700119e-10 ... 0.00000000e+00
-  0.00000000e+00 0.00000000e+00]
- [3.33977636e-10 6.95464547e-10 6.48374357e-10 ... 0.00000000e+00
-  0.00000000e+00 0.00000000e+00]
- [4.26996332e-10 6.98826492e-10 5.22747101e-10 ... 0.00000000e+00
-  0.00000000e+00 0.00000000e+00]]</t>
-        </is>
-      </c>
-      <c r="D296" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="n">
-        <v>0</v>
-      </c>
-      <c r="B297" t="n">
-        <v>0</v>
-      </c>
-      <c r="C297" t="inlineStr">
+    <row r="391">
+      <c r="A391" t="n">
+        <v>0</v>
+      </c>
+      <c r="B391" t="n">
+        <v>0</v>
+      </c>
+      <c r="C391" t="inlineStr">
         <is>
           <t>[[0. 0. 0. ... 0. 0. 0.]
  [0. 0. 0. ... 0. 0. 0.]
@@ -8715,18 +11341,1002 @@
  [0. 0. 0. ... 0. 0. 0.]]</t>
         </is>
       </c>
-      <c r="D297" t="n">
+      <c r="D391" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="298">
-      <c r="A298" t="n">
+    <row r="392">
+      <c r="A392" t="n">
+        <v>0</v>
+      </c>
+      <c r="B392" t="n">
+        <v>0</v>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>[[0. 0. 0. ... 0. 0. 0.]
+ [0. 0. 0. ... 0. 0. 0.]
+ [0. 0. 0. ... 0. 0. 0.]
+ ...
+ [0. 0. 0. ... 0. 0. 0.]
+ [0. 0. 0. ... 0. 0. 0.]
+ [0. 0. 0. ... 0. 0. 0.]]</t>
+        </is>
+      </c>
+      <c r="D392" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>0.03899147085310117</v>
+      </c>
+      <c r="B393" t="n">
+        <v>6335</v>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>[[4.31007292e-03 1.06715804e-03 6.72034713e-06 ... 4.87150268e-06
+  4.87666963e-06 2.75445137e-04]
+ [4.76646416e-03 1.30487627e-03 3.26434480e-05 ... 2.73380981e-06
+  9.22652764e-06 2.88260199e-04]
+ [5.88908183e-03 1.42509583e-03 3.36491126e-05 ... 7.08160671e-06
+  1.14208523e-05 3.43852650e-04]
+ ...
+ [1.26303019e-04 3.16207463e-05 1.37977251e-07 ... 3.46471975e-07
+  2.86093848e-07 8.42864968e-07]
+ [1.25207851e-04 3.13610392e-05 1.18584534e-07 ... 3.88722364e-07
+  2.99951360e-07 7.74544175e-07]
+ [1.22278863e-04 3.05770955e-05 6.24688271e-08 ... 1.25435176e-07
+  9.92350339e-08 6.49836037e-07]]</t>
+        </is>
+      </c>
+      <c r="D393" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>0.1399895277662647</v>
+      </c>
+      <c r="B394" t="n">
+        <v>3291</v>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>[[1.79472943e+00 6.31148373e+00 1.77661257e+01 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]
+ [3.88738177e+00 7.94302766e+00 1.65204817e+01 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]
+ [8.33965018e+00 3.09515956e+01 6.26795465e+01 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]
+ ...
+ [1.31460307e-05 3.30121367e-05 1.34295860e-05 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]
+ [4.62784775e-06 2.25063702e-05 1.07630074e-05 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]
+ [2.00780797e-06 1.15783963e-05 4.88962065e-06 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]]</t>
+        </is>
+      </c>
+      <c r="D394" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>0.08326996585649019</v>
+      </c>
+      <c r="B395" t="n">
+        <v>4134</v>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>[[2.45307170e+01 7.69997814e+01 3.35760553e+01 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]
+ [1.71914760e+01 4.11630099e+01 5.04562627e+01 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]
+ [7.08612191e+00 6.21240560e+00 1.47787669e+01 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]
+ ...
+ [2.13340652e-04 9.83358473e-05 5.91564307e-05 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]
+ [2.05248172e-04 8.11877073e-05 2.74660502e-05 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]
+ [2.02707476e-04 6.90658463e-05 1.89543459e-05 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]]</t>
+        </is>
+      </c>
+      <c r="D395" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>0.009614362430447373</v>
+      </c>
+      <c r="B396" t="n">
+        <v>1123</v>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>[[6.12268805e-04 1.05529329e-03 4.54984392e-04 ... 3.17999265e-03
+  1.44767579e-03 2.65006050e-03]
+ [1.31673533e-03 4.73793427e-03 2.58498488e-03 ... 1.90340241e-02
+  1.43571007e-02 1.75754818e-02]
+ [2.47924304e-03 1.09830237e-02 3.12378764e-02 ... 1.59916498e-02
+  1.81217778e-02 2.91622514e-02]
+ ...
+ [9.23523080e-09 1.91184193e-08 2.73415999e-08 ... 2.17878667e-07
+  1.31105084e-07 1.89749261e-07]
+ [7.51442395e-09 5.42702038e-09 3.38195240e-09 ... 7.55323412e-08
+  4.65165277e-08 1.65917904e-07]
+ [2.78489183e-09 3.86759694e-09 4.81582916e-09 ... 8.73858639e-09
+  6.56395332e-09 1.25961556e-07]]</t>
+        </is>
+      </c>
+      <c r="D396" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>0.002683403701601317</v>
+      </c>
+      <c r="B397" t="n">
+        <v>2439</v>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>[[2.10975541e-03 8.92669979e-04 6.95676045e-04 ... 4.09878104e-04
+  1.08855276e-03 4.06486466e-03]
+ [2.24223442e-03 9.65293417e-04 3.58932071e-03 ... 1.46498326e-03
+  9.29929019e-04 4.86794662e-03]
+ [8.26089651e-03 1.30543722e-02 8.38800019e-03 ... 2.00443345e-02
+  2.83248451e-02 2.49623439e-02]
+ ...
+ [1.61691259e-08 1.95752963e-08 3.19771289e-08 ... 4.55561286e-08
+  4.25105587e-08 6.78398346e-08]
+ [1.30491100e-08 7.48862128e-09 1.52761837e-08 ... 2.57539514e-09
+  3.71985399e-09 4.05741666e-08]
+ [9.92915488e-09 8.00012141e-09 7.22760074e-09 ... 4.79607750e-09
+  5.62991916e-09 4.33922700e-08]]</t>
+        </is>
+      </c>
+      <c r="D397" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>0</v>
+      </c>
+      <c r="B398" t="n">
+        <v>0</v>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>[[0. 0. 0. ... 0. 0. 0.]
+ [0. 0. 0. ... 0. 0. 0.]
+ [0. 0. 0. ... 0. 0. 0.]
+ ...
+ [0. 0. 0. ... 0. 0. 0.]
+ [0. 0. 0. ... 0. 0. 0.]
+ [0. 0. 0. ... 0. 0. 0.]]</t>
+        </is>
+      </c>
+      <c r="D398" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>0.001448866334903542</v>
+      </c>
+      <c r="B399" t="n">
+        <v>3206</v>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>[[2.66684215e-02 4.92102034e-02 5.28052472e-02 ... 4.02613348e-02
+  1.53512850e-02 4.18306401e-03]
+ [4.75746010e-03 7.54619703e-04 2.23553954e-04 ... 3.01969471e-03
+  2.21413817e-03 1.36795003e-03]
+ [1.44643181e-03 4.79147585e-04 1.73790122e-04 ... 6.51894158e-04
+  1.00686844e-03 2.77494405e-04]
+ ...
+ [4.91495266e-08 4.12104380e-08 2.94791553e-08 ... 2.15283625e-08
+  2.13508648e-08 4.30151595e-08]
+ [4.15816268e-08 1.95522338e-08 7.73736677e-09 ... 5.59868482e-09
+  6.00869694e-09 2.53453517e-08]
+ [4.35165414e-08 1.28760626e-08 2.36819402e-09 ... 5.69032341e-09
+  3.67231542e-09 2.43117550e-08]]</t>
+        </is>
+      </c>
+      <c r="D399" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>0.08342240236986577</v>
+      </c>
+      <c r="B400" t="n">
+        <v>999</v>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>[[8.81096152e+00 1.77948330e+01 8.51945069e+00 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]
+ [1.40900313e+01 1.72160865e+01 1.61482517e+01 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]
+ [2.32170975e+01 7.62589854e+01 8.29665890e+01 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]
+ ...
+ [1.24923784e-03 3.14766813e-04 3.08832211e-06 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]
+ [1.23017444e-03 3.08780058e-04 2.35657919e-06 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]
+ [1.20650070e-03 3.01906524e-04 1.63465801e-06 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]]</t>
+        </is>
+      </c>
+      <c r="D400" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>0.09833228526649401</v>
+      </c>
+      <c r="B401" t="n">
+        <v>1102</v>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>[[2.92071267e+01 1.83295166e+01 2.30544957e+01 ... 3.24148237e+01
+  2.34991869e+01 3.96089590e+01]
+ [1.37835140e+01 1.58945889e+01 8.24105381e+00 ... 6.49916402e+01
+  3.70782334e+01 1.15892513e+01]
+ [3.31219206e+00 7.10426410e+00 1.16714386e+01 ... 3.90359773e+01
+  9.91975885e+00 1.40828383e+01]
+ ...
+ [6.79685023e-05 2.79847226e-05 7.82177243e-06 ... 8.51934146e-06
+  1.33471308e-05 1.21241645e-04]
+ [6.91852699e-05 2.35875412e-05 4.20367007e-06 ... 1.33240594e-06
+  3.03942049e-06 1.15203894e-04]
+ [7.13095680e-05 1.84698272e-05 9.80140904e-07 ... 9.14507292e-07
+  1.48613608e-06 1.12766043e-04]]</t>
+        </is>
+      </c>
+      <c r="D401" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>0.01173655301412528</v>
+      </c>
+      <c r="B402" t="n">
+        <v>101</v>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>[[4.42986859e+00 8.31813749e+00 7.26590115e+00 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]
+ [6.91343314e+00 9.09521928e+00 3.68177658e+00 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]
+ [4.92944796e+00 7.56363818e+00 5.04324136e+00 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]
+ ...
+ [1.23759396e-05 3.09320643e-06 9.35027925e-09 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]
+ [1.20616526e-05 3.00646219e-06 2.21833204e-09 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]
+ [1.20023654e-05 2.99378150e-06 2.31525872e-09 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]]</t>
+        </is>
+      </c>
+      <c r="D402" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>0.001675476737519588</v>
+      </c>
+      <c r="B403" t="n">
+        <v>141</v>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>[[3.68135189e-02 5.67160011e-02 1.04197491e-01 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]
+ [7.32325903e-02 2.37061160e-01 2.93284159e-01 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]
+ [6.83056801e-02 1.26404341e-01 9.31134751e-02 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]
+ ...
+ [6.19829160e-08 1.78923850e-08 2.08442462e-09 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]
+ [6.09600027e-08 1.69870467e-08 1.69050815e-09 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]
+ [5.90106122e-08 1.56439712e-08 1.22998540e-09 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]]</t>
+        </is>
+      </c>
+      <c r="D403" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>0.02393683018177847</v>
+      </c>
+      <c r="B404" t="n">
+        <v>3857</v>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>[[1.63348447e-06 6.09001185e-06 1.74588618e-05 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]
+ [2.14380376e-05 3.01986120e-05 6.34161667e-05 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]
+ [7.10055203e-05 2.36330620e-04 1.53773251e-04 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]
+ ...
+ [2.48941227e-07 5.96744498e-07 1.06940061e-06 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]
+ [1.21359523e-07 3.06980940e-07 5.04441199e-07 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]
+ [1.57117808e-08 5.18481603e-08 1.11454865e-07 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]]</t>
+        </is>
+      </c>
+      <c r="D404" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>0</v>
+      </c>
+      <c r="B405" t="n">
+        <v>0</v>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>[[0. 0. 0. ... 0. 0. 0.]
+ [0. 0. 0. ... 0. 0. 0.]
+ [0. 0. 0. ... 0. 0. 0.]
+ ...
+ [0. 0. 0. ... 0. 0. 0.]
+ [0. 0. 0. ... 0. 0. 0.]
+ [0. 0. 0. ... 0. 0. 0.]]</t>
+        </is>
+      </c>
+      <c r="D405" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>0.02651811256395057</v>
+      </c>
+      <c r="B406" t="n">
+        <v>558</v>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>[[1.96289139e-01 2.93718182e-01 2.03781688e-01 ... 2.56119396e-02
+  4.98659134e-02 2.38014738e-01]
+ [5.96279287e-02 1.66427525e-01 3.71212597e-01 ... 1.23004060e-01
+  2.60241010e-01 5.47946945e-01]
+ [1.74413785e-01 2.67294054e-01 3.24140269e+00 ... 9.17004812e-02
+  1.18515368e-01 4.12149818e-01]
+ ...
+ [2.42100184e-06 6.04445711e-07 1.05793143e-09 ... 1.35990615e-09
+  1.76602454e-09 8.59970938e-09]
+ [2.39692632e-06 5.97851937e-07 7.51135337e-10 ... 8.87876211e-10
+  8.46586402e-10 7.00595502e-09]
+ [2.39890843e-06 5.98739890e-07 6.55617176e-10 ... 7.01839182e-10
+  4.75981894e-10 6.51440192e-09]]</t>
+        </is>
+      </c>
+      <c r="D406" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>0.01877804735990387</v>
+      </c>
+      <c r="B407" t="n">
+        <v>202</v>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>[[2.29419626e+00 3.20627611e+00 9.58811997e-01 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]
+ [3.64664834e+00 5.11428197e+00 5.60339458e-01 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]
+ [3.73048257e+00 1.12753257e+01 4.72507640e+00 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]
+ ...
+ [1.62294440e-06 4.05260381e-07 6.94754555e-10 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]
+ [1.60530391e-06 4.00717336e-07 6.73456500e-10 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]
+ [1.59508588e-06 3.98111349e-07 8.47313312e-10 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]]</t>
+        </is>
+      </c>
+      <c r="D407" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>0.0171816783277904</v>
+      </c>
+      <c r="B408" t="n">
+        <v>2002</v>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>[[5.04946629e-02 3.69938370e-02 3.35733675e-02 ... 2.35199138e-02
+  1.74892380e-02 1.98454464e-02]
+ [1.87832513e-01 2.30344799e-01 1.07697099e-01 ... 8.29077916e-03
+  1.07097529e-02 2.79154901e-02]
+ [4.01588562e-01 8.96286284e-01 2.85497768e-01 ... 1.96320156e-02
+  1.18675817e-02 1.46843509e-02]
+ ...
+ [2.16862191e-05 5.40546821e-06 1.35897847e-09 ... 1.44958365e-09
+  4.02209113e-09 9.16091446e-07]
+ [2.13836687e-05 5.32843988e-06 9.76351587e-10 ... 1.66506707e-09
+  4.17049524e-09 9.06557744e-07]
+ [2.14529294e-05 5.34831536e-06 1.11742815e-09 ... 1.16173208e-09
+  3.73312009e-09 8.90023356e-07]]</t>
+        </is>
+      </c>
+      <c r="D408" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>0.01177225171300236</v>
+      </c>
+      <c r="B409" t="n">
+        <v>2563</v>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>[[6.01969011e-02 7.16472119e-02 3.12516116e-02 ... 1.36750980e-03
+  3.04618115e-03 5.34443516e-03]
+ [8.08938200e-02 4.34415941e-02 3.02315925e-02 ... 4.78026289e-03
+  2.14341834e-03 9.20699864e-04]
+ [1.06744526e-01 2.42603335e-01 3.47368991e-01 ... 1.03998600e-02
+  1.74871588e-03 1.02570251e-03]
+ ...
+ [1.81052519e-05 4.51628877e-06 3.33126530e-09 ... 5.97414704e-10
+  9.17450665e-10 6.61644538e-08]
+ [1.79169792e-05 4.46810548e-06 2.90038469e-09 ... 3.73769262e-10
+  6.25280354e-10 6.55342295e-08]
+ [1.76985577e-05 4.41242604e-06 1.92036015e-09 ... 6.73530159e-10
+  8.02437972e-10 6.46645329e-08]]</t>
+        </is>
+      </c>
+      <c r="D409" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>0.000707406229920233</v>
+      </c>
+      <c r="B410" t="n">
+        <v>394</v>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>[[5.49974157e-03 4.51344075e-03 6.47691720e-03 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]
+ [4.40468752e-03 2.98053663e-03 1.26049660e-02 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]
+ [2.75152576e-03 4.48326627e-03 1.24681731e-02 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]
+ ...
+ [2.76493735e-09 2.45027424e-09 4.93895560e-09 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]
+ [3.06810413e-09 3.78684167e-09 3.56078082e-09 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]
+ [2.75894094e-09 1.70233995e-09 1.25067378e-09 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]]</t>
+        </is>
+      </c>
+      <c r="D410" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>0.005824586756864184</v>
+      </c>
+      <c r="B411" t="n">
+        <v>1066</v>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>[[4.60836167e-03 2.03627473e-02 2.32187501e-02 ... 2.28325583e-02
+  1.39961973e-02 2.51130610e-03]
+ [2.79680095e-02 8.08319684e-02 4.39770834e-02 ... 8.71265410e-04
+  3.95067610e-03 4.97671250e-03]
+ [7.20136898e-02 1.60124711e-01 5.13695132e-02 ... 6.00731238e-03
+  9.25268203e-03 1.55878160e-02]
+ ...
+ [1.51101567e-09 1.33296359e-09 8.63726592e-10 ... 2.03651292e-09
+  1.17851779e-09 5.79442353e-09]
+ [1.19565995e-09 8.02749041e-10 4.73867729e-10 ... 5.30171290e-09
+  1.74003412e-09 6.21359900e-09]
+ [1.20692625e-09 7.22854923e-10 4.83457771e-10 ... 9.00713392e-10
+  6.45288702e-10 6.03732661e-09]]</t>
+        </is>
+      </c>
+      <c r="D411" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>0.00157554304168411</v>
+      </c>
+      <c r="B412" t="n">
+        <v>348</v>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>[[7.92631281e-03 2.79798343e-02 1.35603885e-02 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]
+ [8.66752002e-03 3.57438173e-02 1.42041683e-02 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]
+ [3.34158299e-03 1.77858968e-02 1.04197421e-02 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]
+ ...
+ [1.67249733e-08 1.59831870e-08 4.16227884e-09 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]
+ [1.57389395e-08 1.83406456e-08 6.39427166e-09 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]
+ [1.10354434e-08 3.77122096e-09 1.21689525e-09 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]]</t>
+        </is>
+      </c>
+      <c r="D412" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>0.005294586210630735</v>
+      </c>
+      <c r="B413" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>[[8.35616585e-02 7.63440890e-02 4.57918642e-02 ... 7.47041623e-03
+  1.17062521e-02 1.33158373e-02]
+ [1.48733207e-01 1.65599086e-01 3.34376437e-02 ... 2.35420039e-02
+  2.68684735e-02 9.96320439e-03]
+ [1.90252613e-01 3.97439011e-01 2.34229341e-01 ... 2.16354627e-02
+  8.73992416e-02 6.66319183e-02]
+ ...
+ [1.12041432e-06 2.88945481e-07 1.70430828e-08 ... 1.97948140e-08
+  7.60904663e-09 6.71197035e-07]
+ [1.09544135e-06 2.80475055e-07 1.52820989e-08 ... 3.26382193e-09
+  1.65574184e-08 7.06203233e-07]
+ [1.10449433e-06 2.76447224e-07 1.57573461e-09 ... 8.88905204e-10
+  3.39175921e-09 6.80817720e-07]]</t>
+        </is>
+      </c>
+      <c r="D413" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>0.05372183316967243</v>
+      </c>
+      <c r="B414" t="n">
+        <v>4456</v>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>[[3.17987288e-02 3.97891637e-02 6.71203718e-02 ... 1.33254650e+00
+  1.03255595e+00 4.46418284e-01]
+ [6.03928251e-03 2.93867406e-03 5.65786513e-03 ... 2.78560495e-02
+  1.02451584e-02 1.81492588e-02]
+ [2.05169728e-03 3.41043986e-03 8.03998830e-03 ... 9.44128841e-03
+  8.00443222e-03 2.62753993e-03]
+ ...
+ [7.38015406e-06 1.38103521e-05 4.28596274e-05 ... 1.78400589e-06
+  1.54969603e-06 2.17163969e-05]
+ [7.24565981e-06 1.07428755e-05 5.35867047e-05 ... 1.75566459e-06
+  1.53969084e-06 2.09746618e-05]
+ [6.59325962e-06 7.90024264e-06 9.31786239e-06 ... 2.81344026e-06
+  1.51915480e-06 1.91034319e-05]]</t>
+        </is>
+      </c>
+      <c r="D414" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>0.01762115447290991</v>
+      </c>
+      <c r="B415" t="n">
+        <v>3843</v>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>[[2.09441260e-03 2.40777725e-03 1.12044492e-02 ... 9.24186258e-02
+  1.41975250e-01 1.57985259e-01]
+ [1.57001769e-03 6.39340372e-04 8.47751934e-04 ... 9.26193633e-04
+  8.75349030e-04 8.42085069e-03]
+ [1.20388333e-03 5.60795343e-04 2.61295951e-04 ... 4.10292641e-04
+  1.39763553e-03 3.25550431e-03]
+ ...
+ [3.54322686e-08 1.39146849e-08 5.28882086e-09 ... 1.02094981e-08
+  7.88257023e-09 9.94895345e-08]
+ [3.24153352e-08 1.27104821e-08 5.16860517e-09 ... 1.01016479e-08
+  6.88227613e-09 9.80182246e-08]
+ [2.80026531e-08 1.19160123e-08 4.82965139e-09 ... 7.31262183e-09
+  6.84921625e-09 1.07929039e-07]]</t>
+        </is>
+      </c>
+      <c r="D415" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>0.06540512495120249</v>
+      </c>
+      <c r="B416" t="n">
+        <v>1856</v>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>[[5.96428677e-03 2.06589203e-03 9.92227061e-04 ... 4.82875777e-03
+  1.16235899e-03 4.09573987e-02]
+ [4.28956797e-03 7.99278198e-03 8.27842705e-03 ... 9.24749156e-01
+  9.83273284e-01 9.64878510e-01]
+ [6.56435730e-02 1.68239023e-01 1.63781306e-01 ... 9.23579498e+00
+  1.03292516e+01 7.89917872e+00]
+ ...
+ [1.12092325e-06 3.13704594e-07 4.37138626e-08 ... 1.34794034e-07
+  1.73270769e-07 1.46807629e-05]
+ [1.15727199e-06 3.33687457e-07 4.64433174e-08 ... 1.43681713e-07
+  1.79424494e-07 1.45331085e-05]
+ [1.05959742e-06 3.10350456e-07 3.65141252e-08 ... 1.51945469e-07
+  1.66950524e-07 1.48105360e-05]]</t>
+        </is>
+      </c>
+      <c r="D416" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>0.1099843000756175</v>
+      </c>
+      <c r="B417" t="n">
+        <v>1783</v>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>[[2.27226213e+01 5.08156745e+01 7.54285659e+01 ... 9.13942610e+01
+  7.08831062e+01 8.53997678e+01]
+ [6.19239882e+01 9.13588113e+01 6.24627601e+01 ... 1.46447714e+02
+  1.39075029e+02 1.55742837e+02]
+ [6.90261740e+01 4.98367518e+01 7.31017416e+00 ... 3.59709594e+01
+  3.26126083e+01 7.24065120e+01]
+ ...
+ [5.87166855e-04 1.47145880e-04 1.11410048e-06 ... 2.12411986e-08
+  3.45940050e-07 1.06286438e-04]
+ [5.80067637e-04 1.45381653e-04 9.02452539e-07 ... 1.55037315e-08
+  3.40575706e-07 1.04906749e-04]
+ [5.80251399e-04 1.45486433e-04 8.24820044e-07 ... 1.60322510e-08
+  3.41096251e-07 1.04021279e-04]]</t>
+        </is>
+      </c>
+      <c r="D417" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>0.004865275656756158</v>
+      </c>
+      <c r="B418" t="n">
+        <v>2572</v>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>[[5.97674686e-03 1.36540328e-02 1.02011354e-02 ... 1.44123766e-02
+  1.22525492e-02 1.56870952e-02]
+ [1.99044233e-03 2.72328414e-03 5.42672630e-03 ... 3.99926683e-03
+  8.11369000e-03 6.29424783e-03]
+ [5.48373576e-04 9.58417765e-04 1.65956478e-03 ... 4.31070097e-03
+  2.95712335e-03 6.26863832e-04]
+ ...
+ [9.82059948e-08 2.11657439e-07 1.52668642e-07 ... 8.91608360e-08
+  1.03305699e-07 1.37847206e-07]
+ [2.60461883e-08 5.89606660e-08 6.21573689e-08 ... 5.62407331e-08
+  6.89352531e-08 8.50605152e-08]
+ [4.37390448e-09 8.48369779e-09 7.67833238e-09 ... 5.97794056e-09
+  6.72414760e-09 1.64940147e-08]]</t>
+        </is>
+      </c>
+      <c r="D418" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>0.002086935563320324</v>
+      </c>
+      <c r="B419" t="n">
+        <v>5757</v>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>[[1.05025532e-07 5.00962392e-07 2.61264777e-07 ... 6.56606816e-08
+  6.63291580e-08 2.29351677e-06]
+ [8.50103632e-07 2.26192965e-06 1.71333882e-06 ... 5.28752512e-07
+  1.82155929e-06 1.18882128e-05]
+ [4.94743505e-06 7.60096094e-06 4.22077084e-06 ... 3.97055425e-05
+  4.77432239e-05 1.02947179e-04]
+ ...
+ [3.02179089e-09 4.76549612e-09 2.98006320e-09 ... 1.52424160e-09
+  1.42164051e-09 1.88749309e-09]
+ [1.70781542e-09 2.93317502e-09 2.01675276e-09 ... 7.76611169e-10
+  6.52980518e-10 1.28082199e-09]
+ [1.27053064e-09 1.98648792e-09 9.74032319e-10 ... 1.00767814e-09
+  7.84561930e-10 1.27840333e-09]]</t>
+        </is>
+      </c>
+      <c r="D419" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>0.00849256306153086</v>
+      </c>
+      <c r="B420" t="n">
+        <v>601</v>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>[[1.09349117e-01 6.89843581e-02 5.36474395e-02 ... 9.43241542e-01
+  1.05804000e+00 8.92425340e-01]
+ [5.45744147e-02 2.59930186e-02 7.19697085e-03 ... 5.97898506e-03
+  6.70759046e-03 5.54079666e-02]
+ [2.74039027e-02 1.17795281e-02 8.11707265e-03 ... 2.34931249e-02
+  1.66263067e-02 4.29984437e-02]
+ ...
+ [9.13555347e-07 2.28228724e-07 5.87941687e-10 ... 8.46129331e-10
+  2.21044913e-09 3.50717316e-07]
+ [9.05089409e-07 2.26113574e-07 7.89145977e-10 ... 8.03108893e-10
+  1.93735474e-09 3.49756362e-07]
+ [9.02014723e-07 2.25617597e-07 8.33385799e-10 ... 1.20782142e-09
+  1.97219750e-09 3.42035761e-07]]</t>
+        </is>
+      </c>
+      <c r="D420" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>0.1209836763478054</v>
+      </c>
+      <c r="B421" t="n">
+        <v>1142</v>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>[[1.33146107e-01 8.41878429e-02 6.85653621e-02 ... 1.80578253e-01
+  5.42545956e-02 1.09382536e-01]
+ [4.07614289e-02 4.13241495e-03 1.13688479e-03 ... 7.61254306e-03
+  8.73358804e-03 8.31074441e-02]
+ [4.01849524e-02 2.53893673e-02 2.24669093e-02 ... 5.28542132e-03
+  1.41638608e-03 7.34589092e-02]
+ ...
+ [1.49867004e-04 3.73648040e-05 8.18658195e-09 ... 6.73671334e-09
+  1.62204971e-07 5.00685486e-05]
+ [1.49504545e-04 3.72780461e-05 5.28000981e-09 ... 6.09692434e-09
+  1.59674476e-07 4.94783471e-05]
+ [1.48727311e-04 3.70812539e-05 7.99020460e-09 ... 6.55755377e-09
+  1.57989474e-07 4.90726767e-05]]</t>
+        </is>
+      </c>
+      <c r="D421" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>0.06003513850899718</v>
+      </c>
+      <c r="B422" t="n">
+        <v>499</v>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>[[2.77300288e-01 1.26873103e-01 3.08491106e-01 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]
+ [7.71226044e-01 4.91485954e-01 1.81705676e-01 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]
+ [1.16003728e+00 3.19798106e-01 5.35899818e-02 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]
+ ...
+ [1.80379459e-07 6.08481995e-08 1.88492797e-08 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]
+ [1.58494448e-07 5.44059262e-08 1.66003891e-08 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]
+ [1.42899491e-07 4.49783407e-08 2.23835096e-08 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]]</t>
+        </is>
+      </c>
+      <c r="D422" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>0.08721631236825385</v>
+      </c>
+      <c r="B423" t="n">
+        <v>1775</v>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>[[4.99604504e-03 4.21201021e-03 4.00097409e-03 ... 2.03848432e-02
+  1.49775018e-02 5.58986518e-03]
+ [8.49909910e-03 2.95860824e-03 6.40440531e-03 ... 3.82732733e-02
+  2.88427610e-02 5.92259994e-03]
+ [4.14855986e-02 2.97349996e-02 1.05889304e-02 ... 6.67963185e-02
+  6.67158927e-02 4.12122884e-03]
+ ...
+ [4.27787462e-05 1.13548023e-05 8.13692459e-07 ... 3.26610067e-06
+  3.67345040e-06 1.28254084e-05]
+ [4.10824856e-05 1.03397553e-05 1.74071824e-07 ... 2.26625432e-06
+  2.84835710e-06 1.34779729e-05]
+ [4.08110651e-05 1.02455201e-05 9.48630053e-08 ... 1.26165635e-07
+  1.50859556e-07 9.31467719e-06]]</t>
+        </is>
+      </c>
+      <c r="D423" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>0.05796887902470627</v>
+      </c>
+      <c r="B424" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>[[1.81530021e-03 2.95757635e-03 6.54684852e-03 ... 4.51540707e-03
+  1.36577004e-02 1.25518693e-02]
+ [1.70777444e-03 4.52282220e-03 1.91868197e-02 ... 8.24951863e-03
+  3.15671040e-02 7.76169612e-03]
+ [3.10064676e-03 1.07338197e-02 7.64978213e-02 ... 3.96188278e-02
+  2.65754362e-02 1.83811158e-02]
+ ...
+ [1.00884935e-05 5.75159552e-06 4.48690704e-06 ... 7.64687329e-07
+  1.08407723e-06 9.32007917e-07]
+ [8.34118547e-06 4.56724892e-06 2.25511622e-06 ... 4.86947456e-07
+  7.49002698e-07 5.71951628e-07]
+ [6.13469407e-06 1.62568902e-06 1.25360250e-07 ... 9.12358174e-08
+  6.98992638e-08 1.70527790e-07]]</t>
+        </is>
+      </c>
+      <c r="D424" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>0.008709328563048402</v>
+      </c>
+      <c r="B425" t="n">
+        <v>564</v>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>[[3.67313360e-01 3.73932769e-01 2.08083565e-01 ... 5.36816175e-01
+  4.60743998e-01 1.53255868e-01]
+ [1.03602922e-01 5.71092652e-02 3.58999250e-02 ... 2.98372694e-02
+  2.59440004e-02 2.86004557e-02]
+ [2.84895083e-02 1.22011633e-02 1.16869470e-02 ... 7.51627145e-03
+  1.28845313e-02 7.07724556e-02]
+ ...
+ [8.54191797e-07 2.16333802e-07 1.47850691e-09 ... 1.37074387e-08
+  1.13262022e-07 3.88681772e-06]
+ [8.42169477e-07 2.11975710e-07 1.11955626e-09 ... 1.22210844e-08
+  7.39890431e-08 3.59760488e-06]
+ [8.51046334e-07 2.13631963e-07 6.56527350e-10 ... 3.96009670e-08
+  7.02412484e-08 3.50310394e-06]]</t>
+        </is>
+      </c>
+      <c r="D425" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>5.039644718904121e-05</v>
+      </c>
+      <c r="B426" t="n">
+        <v>2888</v>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>[[1.49794009e-05 1.82327420e-05 1.17912683e-06 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]
+ [7.78661448e-06 1.23892760e-05 3.85447937e-06 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]
+ [1.75078192e-06 2.04493278e-06 2.23472511e-06 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]
+ ...
+ [3.87536473e-10 7.80045729e-10 7.05700119e-10 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]
+ [3.33977636e-10 6.95464547e-10 6.48374357e-10 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]
+ [4.26996332e-10 6.98826492e-10 5.22747101e-10 ... 0.00000000e+00
+  0.00000000e+00 0.00000000e+00]]</t>
+        </is>
+      </c>
+      <c r="D426" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>0</v>
+      </c>
+      <c r="B427" t="n">
+        <v>0</v>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>[[0. 0. 0. ... 0. 0. 0.]
+ [0. 0. 0. ... 0. 0. 0.]
+ [0. 0. 0. ... 0. 0. 0.]
+ ...
+ [0. 0. 0. ... 0. 0. 0.]
+ [0. 0. 0. ... 0. 0. 0.]
+ [0. 0. 0. ... 0. 0. 0.]]</t>
+        </is>
+      </c>
+      <c r="D427" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
         <v>0.003296855022165123</v>
       </c>
-      <c r="B298" t="n">
+      <c r="B428" t="n">
         <v>595</v>
       </c>
-      <c r="C298" t="inlineStr">
+      <c r="C428" t="inlineStr">
         <is>
           <t>[[1.04539028e-02 4.36471304e-02 7.65722342e-02 ... 0.00000000e+00
   0.00000000e+00 0.00000000e+00]
@@ -8743,18 +12353,18 @@
   0.00000000e+00 0.00000000e+00]]</t>
         </is>
       </c>
-      <c r="D298" t="n">
+      <c r="D428" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="299">
-      <c r="A299" t="n">
+    <row r="429">
+      <c r="A429" t="n">
         <v>0.001986959065103665</v>
       </c>
-      <c r="B299" t="n">
+      <c r="B429" t="n">
         <v>131</v>
       </c>
-      <c r="C299" t="inlineStr">
+      <c r="C429" t="inlineStr">
         <is>
           <t>[[1.36753403e-01 4.98141767e-01 6.37610244e-01 ... 0.00000000e+00
   0.00000000e+00 0.00000000e+00]
@@ -8771,7 +12381,7 @@
   0.00000000e+00 0.00000000e+00]]</t>
         </is>
       </c>
-      <c r="D299" t="n">
+      <c r="D429" t="n">
         <v>2</v>
       </c>
     </row>
